--- a/LubanTools/DesignerConfigs/Datas/Build_建筑表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/Build_建筑表.xlsx
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -1576,7 +1576,7 @@
   <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1585,7 +1585,8 @@
     <col min="2" max="2" width="10.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="14" style="2" customWidth="1"/>
+    <col min="5" max="6" width="14" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="40.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.375" customWidth="1"/>
     <col min="11" max="11" width="11.875" customWidth="1"/>
@@ -1766,7 +1767,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="14" t="str">
-        <f t="shared" ref="D5:D31" si="0">"building_"&amp;B5</f>
+        <f>"building_"&amp;B5</f>
         <v>building_10101</v>
       </c>
       <c r="E5" s="14">
@@ -1799,7 +1800,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D31" si="0">"building_"&amp;B6</f>
         <v>building_10201</v>
       </c>
       <c r="E6" s="2">
@@ -1922,6 +1923,9 @@
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B10" s="2">
         <v>20201</v>
       </c>
@@ -1957,6 +1961,9 @@
       <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B11" s="2">
         <v>20301</v>
       </c>
@@ -1992,6 +1999,9 @@
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B12" s="2">
         <v>30101</v>
       </c>
@@ -2027,6 +2037,9 @@
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B13" s="2">
         <v>30201</v>
       </c>
@@ -2062,6 +2075,9 @@
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B14" s="2">
         <v>30301</v>
       </c>
@@ -2097,6 +2113,9 @@
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B15" s="2">
         <v>30401</v>
       </c>
@@ -2132,6 +2151,9 @@
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B16" s="2">
         <v>40101</v>
       </c>
@@ -2169,7 +2191,10 @@
       </c>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B17" s="2">
         <v>40201</v>
       </c>
@@ -2207,7 +2232,10 @@
       </c>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B18" s="2">
         <v>40301</v>
       </c>
@@ -2245,7 +2273,7 @@
       </c>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="1:13">
       <c r="B19" s="2">
         <v>40401</v>
       </c>
@@ -2283,7 +2311,10 @@
       </c>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B20" s="2">
         <v>40501</v>
       </c>
@@ -2321,7 +2352,10 @@
       </c>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B21" s="2">
         <v>40601</v>
       </c>
@@ -2359,7 +2393,10 @@
       </c>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B22" s="2">
         <v>50101</v>
       </c>
@@ -2397,7 +2434,10 @@
       </c>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B23" s="2">
         <v>50201</v>
       </c>
@@ -2435,7 +2475,7 @@
       </c>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="1:13">
       <c r="B24" s="2">
         <v>50301</v>
       </c>
@@ -2473,7 +2513,7 @@
       </c>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="1:13">
       <c r="B25" s="2">
         <v>50401</v>
       </c>
@@ -2511,7 +2551,10 @@
       </c>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B26" s="2">
         <v>50501</v>
       </c>
@@ -2549,7 +2592,10 @@
       </c>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B27" s="2">
         <v>50601</v>
       </c>
@@ -2587,7 +2633,10 @@
       </c>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="1:13">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B28" s="2">
         <v>50701</v>
       </c>
@@ -2625,7 +2674,10 @@
       </c>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B29" s="2">
         <v>50801</v>
       </c>
@@ -2663,7 +2715,10 @@
       </c>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B30" s="2">
         <v>60101</v>
       </c>
@@ -2695,7 +2750,10 @@
       <c r="K30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B31" s="2">
         <v>70101</v>
       </c>
@@ -2727,7 +2785,7 @@
       <c r="K31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="1:13">
       <c r="M32" s="7"/>
     </row>
     <row r="33" spans="13:13">

--- a/LubanTools/DesignerConfigs/Datas/Build_建筑表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/Build_建筑表.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -218,36 +218,7 @@
     <t>Orientation</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Demand</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ccupation</t>
-    </r>
+    <t>DemandOccupation</t>
   </si>
   <si>
     <t>BuildingTag</t>
@@ -271,26 +242,7 @@
     <t>zsEnum.BuildingSubtype</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ool</t>
-    </r>
+    <t>bool</t>
   </si>
   <si>
     <t>zsEnum.Orientation</t>
@@ -471,7 +423,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,19 +461,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -707,13 +646,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399914548173467"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,7 +843,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -924,6 +863,34 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.5"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.5"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,137 +1012,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1185,7 +1152,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1197,34 +1167,57 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1572,11 +1565,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1585,1874 +1578,1830 @@
     <col min="2" max="2" width="10.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
+    <col min="5" max="7" width="14" style="2" customWidth="1"/>
     <col min="8" max="8" width="40.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.375" customWidth="1"/>
-    <col min="11" max="11" width="11.875" customWidth="1"/>
-    <col min="12" max="12" width="37.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3"/>
+    <col min="10" max="10" width="20.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="37.125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12" style="3" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14">
+      <c r="B5" s="16">
         <v>10101</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="14" t="str">
-        <f>"building_"&amp;B5</f>
+      <c r="D5" s="16" t="str">
+        <f t="shared" ref="D5:D31" si="0">"building_"&amp;B5</f>
         <v>building_10101</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="16">
         <v>3</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="16">
         <v>3</v>
       </c>
-      <c r="G5" s="14">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
         <v>0</v>
       </c>
-      <c r="J5" s="7">
-        <v>2</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="7"/>
+      <c r="J5" s="19">
+        <v>2</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="2">
+      <c r="B6" s="21">
         <v>10201</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="14" t="str">
-        <f t="shared" ref="D5:D31" si="0">"building_"&amp;B6</f>
+      <c r="D6" s="16" t="str">
+        <f t="shared" si="0"/>
         <v>building_10201</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="21">
         <v>3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="21">
         <v>3</v>
       </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="G6" s="21">
+        <v>1</v>
+      </c>
+      <c r="H6" s="22">
+        <v>2</v>
+      </c>
+      <c r="I6" s="19">
         <v>0</v>
       </c>
-      <c r="J6" s="7">
-        <v>2</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="J6" s="19">
+        <v>2</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" s="2">
+      <c r="B7" s="21">
         <v>10301</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="14" t="str">
+      <c r="D7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_10301</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="21">
         <v>3</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="21">
         <v>3</v>
       </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G7" s="21">
+        <v>1</v>
+      </c>
+      <c r="H7" s="22">
         <v>3</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="19">
         <v>0</v>
       </c>
-      <c r="J7" s="7">
-        <v>2</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="9"/>
+      <c r="J7" s="19">
+        <v>2</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="2">
+      <c r="B8" s="21">
         <v>10401</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="14" t="str">
+      <c r="D8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_10401</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="21">
         <v>3</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="21">
         <v>3</v>
       </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="G8" s="21">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22">
         <v>4</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="19">
         <v>0</v>
       </c>
-      <c r="J8" s="7">
-        <v>2</v>
-      </c>
-      <c r="K8" s="7"/>
+      <c r="J8" s="19">
+        <v>2</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="2">
+      <c r="B9" s="21">
         <v>20101</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="14" t="str">
+      <c r="D9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_20101</v>
       </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="E9" s="21">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21">
+        <v>1</v>
+      </c>
+      <c r="G9" s="21">
+        <v>2</v>
+      </c>
+      <c r="H9" s="22">
         <v>5</v>
       </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7">
-        <v>2</v>
-      </c>
-      <c r="K9" s="7" t="str">
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>2</v>
+      </c>
+      <c r="K9" s="19" t="str">
         <f>LEFT(B9,3)</f>
         <v>201</v>
       </c>
-      <c r="M9" s="7"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="B10" s="21">
         <v>20201</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="14" t="str">
+      <c r="D10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_20201</v>
       </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="E10" s="21">
+        <v>2</v>
+      </c>
+      <c r="F10" s="21">
+        <v>2</v>
+      </c>
+      <c r="G10" s="21">
+        <v>2</v>
+      </c>
+      <c r="H10" s="22">
         <v>6</v>
       </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7">
-        <v>2</v>
-      </c>
-      <c r="K10" s="7" t="str">
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
+        <v>2</v>
+      </c>
+      <c r="K10" s="19" t="str">
         <f t="shared" ref="K10:K29" si="1">LEFT(B10,3)</f>
         <v>202</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="B11" s="21">
         <v>20301</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="14" t="str">
+      <c r="D11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_20301</v>
       </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="E11" s="21">
+        <v>2</v>
+      </c>
+      <c r="F11" s="21">
+        <v>2</v>
+      </c>
+      <c r="G11" s="21">
+        <v>2</v>
+      </c>
+      <c r="H11" s="22">
         <v>7</v>
       </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7">
-        <v>2</v>
-      </c>
-      <c r="K11" s="7" t="str">
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>2</v>
+      </c>
+      <c r="K11" s="19" t="str">
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="B12" s="21">
         <v>30101</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="14" t="str">
+      <c r="D12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_30101</v>
       </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
+      <c r="F12" s="21">
+        <v>1</v>
+      </c>
+      <c r="G12" s="21">
         <v>3</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="22">
         <v>8</v>
       </c>
-      <c r="I12" s="7">
-        <v>1</v>
-      </c>
-      <c r="J12" s="7">
-        <v>2</v>
-      </c>
-      <c r="K12" s="7" t="str">
+      <c r="I12" s="19">
+        <v>1</v>
+      </c>
+      <c r="J12" s="19">
+        <v>2</v>
+      </c>
+      <c r="K12" s="19" t="str">
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="B13" s="21">
         <v>30201</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="14" t="str">
+      <c r="D13" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_30201</v>
       </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="21">
+        <v>1</v>
+      </c>
+      <c r="G13" s="21">
         <v>3</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="22">
         <v>9</v>
       </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7">
-        <v>2</v>
-      </c>
-      <c r="K13" s="7" t="str">
+      <c r="I13" s="19">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19">
+        <v>2</v>
+      </c>
+      <c r="K13" s="19" t="str">
         <f t="shared" si="1"/>
         <v>302</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="B14" s="21">
         <v>30301</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="14" t="str">
+      <c r="D14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_30301</v>
       </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21">
+        <v>1</v>
+      </c>
+      <c r="G14" s="21">
         <v>3</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="22">
         <v>10</v>
       </c>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-      <c r="J14" s="7">
-        <v>2</v>
-      </c>
-      <c r="K14" s="7" t="str">
+      <c r="I14" s="19">
+        <v>1</v>
+      </c>
+      <c r="J14" s="19">
+        <v>2</v>
+      </c>
+      <c r="K14" s="19" t="str">
         <f t="shared" si="1"/>
         <v>303</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="B15" s="21">
         <v>30401</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="14" t="str">
+      <c r="D15" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_30401</v>
       </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="E15" s="21">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21">
+        <v>1</v>
+      </c>
+      <c r="G15" s="21">
         <v>3</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="22">
         <v>11</v>
       </c>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
-      <c r="J15" s="7">
-        <v>2</v>
-      </c>
-      <c r="K15" s="7" t="str">
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
+        <v>2</v>
+      </c>
+      <c r="K15" s="19" t="str">
         <f t="shared" si="1"/>
         <v>304</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="B16" s="21">
         <v>40101</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="14" t="str">
+      <c r="D16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_40101</v>
       </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="E16" s="21">
+        <v>2</v>
+      </c>
+      <c r="F16" s="21">
+        <v>2</v>
+      </c>
+      <c r="G16" s="21">
         <v>4</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="22">
         <v>12</v>
       </c>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
-      <c r="J16" s="7">
-        <v>2</v>
-      </c>
-      <c r="K16" s="7" t="str">
+      <c r="I16" s="19">
+        <v>1</v>
+      </c>
+      <c r="J16" s="19">
+        <v>2</v>
+      </c>
+      <c r="K16" s="19" t="str">
         <f t="shared" si="1"/>
         <v>401</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="21">
         <v>40201</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="14" t="str">
+      <c r="D17" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_40201</v>
       </c>
-      <c r="E17" s="2">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="E17" s="21">
+        <v>2</v>
+      </c>
+      <c r="F17" s="21">
+        <v>2</v>
+      </c>
+      <c r="G17" s="21">
         <v>4</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="22">
         <v>13</v>
       </c>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
-      <c r="J17" s="7">
-        <v>2</v>
-      </c>
-      <c r="K17" s="7" t="str">
+      <c r="I17" s="19">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19">
+        <v>2</v>
+      </c>
+      <c r="K17" s="19" t="str">
         <f t="shared" si="1"/>
         <v>402</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="21">
         <v>40301</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="14" t="str">
+      <c r="D18" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_40301</v>
       </c>
-      <c r="E18" s="2">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="E18" s="21">
+        <v>2</v>
+      </c>
+      <c r="F18" s="21">
+        <v>2</v>
+      </c>
+      <c r="G18" s="21">
         <v>4</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="22">
         <v>14</v>
       </c>
-      <c r="I18" s="7">
-        <v>1</v>
-      </c>
-      <c r="J18" s="7">
-        <v>2</v>
-      </c>
-      <c r="K18" s="7" t="str">
+      <c r="I18" s="19">
+        <v>1</v>
+      </c>
+      <c r="J18" s="19">
+        <v>2</v>
+      </c>
+      <c r="K18" s="19" t="str">
         <f t="shared" si="1"/>
         <v>403</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="B19" s="2">
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="21">
         <v>40401</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="14" t="str">
+      <c r="D19" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_40401</v>
       </c>
-      <c r="E19" s="2">
-        <v>2</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="E19" s="21">
+        <v>2</v>
+      </c>
+      <c r="F19" s="21">
+        <v>2</v>
+      </c>
+      <c r="G19" s="21">
         <v>4</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="22">
         <v>15</v>
       </c>
-      <c r="I19" s="7">
-        <v>1</v>
-      </c>
-      <c r="J19" s="7">
-        <v>2</v>
-      </c>
-      <c r="K19" s="7" t="str">
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>2</v>
+      </c>
+      <c r="K19" s="19" t="str">
         <f t="shared" si="1"/>
         <v>404</v>
       </c>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="L19" s="23">
+        <v>1</v>
+      </c>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="21">
         <v>40501</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="14" t="str">
+      <c r="D20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_40501</v>
       </c>
-      <c r="E20" s="2">
-        <v>2</v>
-      </c>
-      <c r="F20" s="2">
-        <v>2</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="E20" s="21">
+        <v>2</v>
+      </c>
+      <c r="F20" s="21">
+        <v>2</v>
+      </c>
+      <c r="G20" s="21">
         <v>4</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="22">
         <v>16</v>
       </c>
-      <c r="I20" s="7">
-        <v>1</v>
-      </c>
-      <c r="J20" s="7">
-        <v>2</v>
-      </c>
-      <c r="K20" s="7" t="str">
+      <c r="I20" s="19">
+        <v>1</v>
+      </c>
+      <c r="J20" s="19">
+        <v>2</v>
+      </c>
+      <c r="K20" s="19" t="str">
         <f t="shared" si="1"/>
         <v>405</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="21">
         <v>40601</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="14" t="str">
+      <c r="D21" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_40601</v>
       </c>
-      <c r="E21" s="2">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="E21" s="21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="21">
         <v>4</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="22">
         <v>17</v>
       </c>
-      <c r="I21" s="7">
-        <v>1</v>
-      </c>
-      <c r="J21" s="7">
-        <v>2</v>
-      </c>
-      <c r="K21" s="7" t="str">
+      <c r="I21" s="19">
+        <v>1</v>
+      </c>
+      <c r="J21" s="19">
+        <v>2</v>
+      </c>
+      <c r="K21" s="19" t="str">
         <f t="shared" si="1"/>
         <v>406</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2">
+      <c r="M21" s="19"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="21">
         <v>50101</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="14" t="str">
+      <c r="D22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_50101</v>
       </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="E22" s="21">
+        <v>2</v>
+      </c>
+      <c r="F22" s="21">
+        <v>2</v>
+      </c>
+      <c r="G22" s="21">
         <v>5</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="22">
         <v>18</v>
       </c>
-      <c r="I22" s="7">
-        <v>1</v>
-      </c>
-      <c r="J22" s="7">
-        <v>2</v>
-      </c>
-      <c r="K22" s="7" t="str">
+      <c r="I22" s="19">
+        <v>1</v>
+      </c>
+      <c r="J22" s="19">
+        <v>2</v>
+      </c>
+      <c r="K22" s="19" t="str">
         <f t="shared" si="1"/>
         <v>501</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="M22" s="19"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="21">
         <v>50201</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="14" t="str">
+      <c r="D23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_50201</v>
       </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="E23" s="21">
+        <v>2</v>
+      </c>
+      <c r="F23" s="21">
+        <v>2</v>
+      </c>
+      <c r="G23" s="21">
         <v>5</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="22">
         <v>19</v>
       </c>
-      <c r="I23" s="7">
-        <v>1</v>
-      </c>
-      <c r="J23" s="7">
-        <v>2</v>
-      </c>
-      <c r="K23" s="7" t="str">
+      <c r="I23" s="19">
+        <v>1</v>
+      </c>
+      <c r="J23" s="19">
+        <v>2</v>
+      </c>
+      <c r="K23" s="19" t="str">
         <f t="shared" si="1"/>
         <v>502</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="B24" s="2">
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="21">
         <v>50301</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="14" t="str">
+      <c r="D24" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_50301</v>
       </c>
-      <c r="E24" s="2">
-        <v>2</v>
-      </c>
-      <c r="F24" s="2">
-        <v>2</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="E24" s="21">
+        <v>2</v>
+      </c>
+      <c r="F24" s="21">
+        <v>2</v>
+      </c>
+      <c r="G24" s="21">
         <v>5</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="22">
         <v>20</v>
       </c>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
-      <c r="J24" s="7">
-        <v>2</v>
-      </c>
-      <c r="K24" s="7" t="str">
+      <c r="I24" s="19">
+        <v>1</v>
+      </c>
+      <c r="J24" s="19">
+        <v>2</v>
+      </c>
+      <c r="K24" s="19" t="str">
         <f t="shared" si="1"/>
         <v>503</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="B25" s="2">
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="21">
         <v>50401</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="14" t="str">
+      <c r="D25" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_50401</v>
       </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="E25" s="21">
+        <v>2</v>
+      </c>
+      <c r="F25" s="21">
+        <v>2</v>
+      </c>
+      <c r="G25" s="21">
         <v>5</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="22">
         <v>21</v>
       </c>
-      <c r="I25" s="7">
-        <v>1</v>
-      </c>
-      <c r="J25" s="7">
-        <v>2</v>
-      </c>
-      <c r="K25" s="7" t="str">
+      <c r="I25" s="19">
+        <v>1</v>
+      </c>
+      <c r="J25" s="19">
+        <v>2</v>
+      </c>
+      <c r="K25" s="19" t="str">
         <f t="shared" si="1"/>
         <v>504</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="M25" s="19"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="21">
         <v>50501</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="14" t="str">
+      <c r="D26" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_50501</v>
       </c>
-      <c r="E26" s="2">
-        <v>2</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="E26" s="21">
+        <v>2</v>
+      </c>
+      <c r="F26" s="21">
+        <v>2</v>
+      </c>
+      <c r="G26" s="21">
         <v>5</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="22">
         <v>22</v>
       </c>
-      <c r="I26" s="7">
-        <v>1</v>
-      </c>
-      <c r="J26" s="7">
-        <v>2</v>
-      </c>
-      <c r="K26" s="7" t="str">
+      <c r="I26" s="19">
+        <v>1</v>
+      </c>
+      <c r="J26" s="19">
+        <v>2</v>
+      </c>
+      <c r="K26" s="19" t="str">
         <f t="shared" si="1"/>
         <v>505</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="23">
         <v>3</v>
       </c>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
+      <c r="M26" s="19"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="21">
         <v>50601</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="14" t="str">
+      <c r="D27" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_50601</v>
       </c>
-      <c r="E27" s="2">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2">
-        <v>2</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="E27" s="21">
+        <v>2</v>
+      </c>
+      <c r="F27" s="21">
+        <v>2</v>
+      </c>
+      <c r="G27" s="21">
         <v>5</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="22">
         <v>23</v>
       </c>
-      <c r="I27" s="7">
-        <v>1</v>
-      </c>
-      <c r="J27" s="7">
-        <v>2</v>
-      </c>
-      <c r="K27" s="7" t="str">
+      <c r="I27" s="19">
+        <v>1</v>
+      </c>
+      <c r="J27" s="19">
+        <v>2</v>
+      </c>
+      <c r="K27" s="19" t="str">
         <f t="shared" si="1"/>
         <v>506</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2">
+      <c r="M27" s="19"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="21">
         <v>50701</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="14" t="str">
+      <c r="D28" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_50701</v>
       </c>
-      <c r="E28" s="2">
-        <v>2</v>
-      </c>
-      <c r="F28" s="2">
-        <v>2</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="E28" s="21">
+        <v>2</v>
+      </c>
+      <c r="F28" s="21">
+        <v>2</v>
+      </c>
+      <c r="G28" s="21">
         <v>5</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="22">
         <v>24</v>
       </c>
-      <c r="I28" s="7">
-        <v>1</v>
-      </c>
-      <c r="J28" s="7">
-        <v>2</v>
-      </c>
-      <c r="K28" s="7" t="str">
+      <c r="I28" s="19">
+        <v>1</v>
+      </c>
+      <c r="J28" s="19">
+        <v>2</v>
+      </c>
+      <c r="K28" s="19" t="str">
         <f t="shared" si="1"/>
         <v>507</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="2">
+      <c r="M28" s="19"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="21">
         <v>50801</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="14" t="str">
+      <c r="D29" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_50801</v>
       </c>
-      <c r="E29" s="2">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2">
-        <v>2</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="E29" s="21">
+        <v>2</v>
+      </c>
+      <c r="F29" s="21">
+        <v>2</v>
+      </c>
+      <c r="G29" s="21">
         <v>5</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="22">
         <v>25</v>
       </c>
-      <c r="I29" s="7">
-        <v>1</v>
-      </c>
-      <c r="J29" s="7">
-        <v>2</v>
-      </c>
-      <c r="K29" s="7" t="str">
+      <c r="I29" s="19">
+        <v>1</v>
+      </c>
+      <c r="J29" s="19">
+        <v>2</v>
+      </c>
+      <c r="K29" s="19" t="str">
         <f t="shared" si="1"/>
         <v>508</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2">
+      <c r="M29" s="19"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="21">
         <v>60101</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="14" t="str">
+      <c r="D30" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_60101</v>
       </c>
-      <c r="E30" s="2">
-        <v>2</v>
-      </c>
-      <c r="F30" s="2">
-        <v>2</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="E30" s="21">
+        <v>2</v>
+      </c>
+      <c r="F30" s="21">
+        <v>2</v>
+      </c>
+      <c r="G30" s="21">
         <v>6</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="22">
         <v>601</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="19">
         <v>0</v>
       </c>
-      <c r="J30" s="7">
-        <v>2</v>
-      </c>
-      <c r="K30" s="7"/>
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="2">
+      <c r="J30" s="19">
+        <v>2</v>
+      </c>
+      <c r="K30" s="19"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="19"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="21">
         <v>70101</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="14" t="str">
+      <c r="D31" s="16" t="str">
         <f t="shared" si="0"/>
         <v>building_70101</v>
       </c>
-      <c r="E31" s="2">
-        <v>2</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="E31" s="21">
+        <v>2</v>
+      </c>
+      <c r="F31" s="21">
+        <v>2</v>
+      </c>
+      <c r="G31" s="21">
         <v>7</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="22">
         <v>701</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="19">
         <v>0</v>
       </c>
-      <c r="J31" s="7">
-        <v>2</v>
-      </c>
-      <c r="K31" s="7"/>
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="M32" s="7"/>
+      <c r="J31" s="19">
+        <v>2</v>
+      </c>
+      <c r="K31" s="19"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="19"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="M32" s="26"/>
     </row>
     <row r="33" spans="13:13">
-      <c r="M33" s="7"/>
+      <c r="M33" s="26"/>
     </row>
     <row r="34" spans="13:13">
-      <c r="M34" s="7"/>
+      <c r="M34" s="26"/>
     </row>
     <row r="35" spans="13:13">
-      <c r="M35" s="7"/>
+      <c r="M35" s="26"/>
     </row>
     <row r="36" spans="13:13">
-      <c r="M36" s="7"/>
+      <c r="M36" s="26"/>
     </row>
     <row r="37" spans="13:13">
-      <c r="M37" s="7"/>
+      <c r="M37" s="26"/>
     </row>
     <row r="38" spans="13:13">
-      <c r="M38" s="7"/>
+      <c r="M38" s="26"/>
     </row>
     <row r="39" spans="13:13">
-      <c r="M39" s="7"/>
+      <c r="M39" s="26"/>
     </row>
     <row r="40" spans="13:13">
-      <c r="M40" s="7"/>
+      <c r="M40" s="26"/>
     </row>
     <row r="41" spans="13:13">
-      <c r="M41" s="7"/>
+      <c r="M41" s="26"/>
     </row>
     <row r="42" spans="13:13">
-      <c r="M42" s="7"/>
+      <c r="M42" s="26"/>
     </row>
     <row r="43" spans="13:13">
-      <c r="M43" s="7"/>
+      <c r="M43" s="26"/>
     </row>
     <row r="44" spans="13:13">
-      <c r="M44" s="7"/>
+      <c r="M44" s="26"/>
     </row>
     <row r="45" spans="13:13">
-      <c r="M45" s="7"/>
+      <c r="M45" s="26"/>
     </row>
     <row r="46" spans="13:13">
-      <c r="M46" s="7"/>
+      <c r="M46" s="26"/>
     </row>
     <row r="47" spans="13:13">
-      <c r="M47" s="7"/>
+      <c r="M47" s="26"/>
     </row>
     <row r="48" spans="13:13">
-      <c r="M48" s="7"/>
+      <c r="M48" s="26"/>
     </row>
     <row r="49" spans="13:13">
-      <c r="M49" s="7"/>
+      <c r="M49" s="26"/>
     </row>
     <row r="50" spans="13:13">
-      <c r="M50" s="7"/>
+      <c r="M50" s="26"/>
     </row>
     <row r="51" spans="13:13">
-      <c r="M51" s="7"/>
+      <c r="M51" s="26"/>
     </row>
     <row r="52" spans="13:13">
-      <c r="M52" s="7"/>
+      <c r="M52" s="26"/>
     </row>
     <row r="53" spans="13:13">
-      <c r="M53" s="7"/>
+      <c r="M53" s="26"/>
     </row>
     <row r="54" spans="13:13">
-      <c r="M54" s="7"/>
+      <c r="M54" s="26"/>
     </row>
     <row r="55" spans="13:13">
-      <c r="M55" s="7"/>
+      <c r="M55" s="26"/>
     </row>
     <row r="56" spans="13:13">
-      <c r="M56" s="7"/>
+      <c r="M56" s="26"/>
     </row>
     <row r="57" spans="13:13">
-      <c r="M57" s="7"/>
+      <c r="M57" s="26"/>
     </row>
     <row r="58" spans="13:13">
-      <c r="M58" s="7"/>
+      <c r="M58" s="26"/>
     </row>
     <row r="59" spans="13:13">
-      <c r="M59" s="7"/>
+      <c r="M59" s="26"/>
     </row>
     <row r="60" spans="13:13">
-      <c r="M60" s="7"/>
+      <c r="M60" s="26"/>
     </row>
     <row r="61" spans="13:13">
-      <c r="M61" s="7"/>
+      <c r="M61" s="26"/>
     </row>
     <row r="62" spans="13:13">
-      <c r="M62" s="7"/>
+      <c r="M62" s="26"/>
     </row>
     <row r="63" spans="13:13">
-      <c r="M63" s="7"/>
+      <c r="M63" s="26"/>
     </row>
     <row r="64" spans="13:13">
-      <c r="M64" s="7"/>
+      <c r="M64" s="26"/>
     </row>
     <row r="65" spans="13:13">
-      <c r="M65" s="7"/>
+      <c r="M65" s="26"/>
     </row>
     <row r="66" spans="13:13">
-      <c r="M66" s="7"/>
+      <c r="M66" s="26"/>
     </row>
     <row r="67" spans="13:13">
-      <c r="M67" s="7"/>
+      <c r="M67" s="26"/>
     </row>
     <row r="68" spans="13:13">
-      <c r="M68" s="7"/>
+      <c r="M68" s="26"/>
     </row>
     <row r="69" spans="13:13">
-      <c r="M69" s="7"/>
+      <c r="M69" s="26"/>
     </row>
     <row r="70" spans="13:13">
-      <c r="M70" s="7"/>
+      <c r="M70" s="26"/>
     </row>
     <row r="71" spans="13:13">
-      <c r="M71" s="7"/>
+      <c r="M71" s="26"/>
     </row>
     <row r="72" spans="13:13">
-      <c r="M72" s="7"/>
+      <c r="M72" s="26"/>
     </row>
     <row r="73" spans="13:13">
-      <c r="M73" s="7"/>
+      <c r="M73" s="26"/>
     </row>
     <row r="74" spans="13:13">
-      <c r="M74" s="7"/>
+      <c r="M74" s="26"/>
     </row>
     <row r="75" spans="13:13">
-      <c r="M75" s="7"/>
+      <c r="M75" s="26"/>
     </row>
     <row r="76" spans="13:13">
-      <c r="M76" s="7"/>
+      <c r="M76" s="26"/>
     </row>
     <row r="77" spans="13:13">
-      <c r="M77" s="7"/>
+      <c r="M77" s="26"/>
     </row>
     <row r="78" spans="13:13">
-      <c r="M78" s="7"/>
+      <c r="M78" s="26"/>
     </row>
     <row r="79" spans="13:13">
-      <c r="M79" s="7"/>
+      <c r="M79" s="26"/>
     </row>
     <row r="80" spans="13:13">
-      <c r="M80" s="7"/>
+      <c r="M80" s="26"/>
     </row>
     <row r="81" spans="13:13">
-      <c r="M81" s="7"/>
+      <c r="M81" s="26"/>
     </row>
     <row r="82" spans="13:13">
-      <c r="M82" s="7"/>
+      <c r="M82" s="26"/>
     </row>
     <row r="83" spans="13:13">
-      <c r="M83" s="7"/>
+      <c r="M83" s="26"/>
     </row>
     <row r="84" spans="13:13">
-      <c r="M84" s="7"/>
+      <c r="M84" s="26"/>
     </row>
     <row r="85" spans="13:13">
-      <c r="M85" s="7"/>
+      <c r="M85" s="26"/>
     </row>
     <row r="86" spans="13:13">
-      <c r="M86" s="7"/>
+      <c r="M86" s="26"/>
     </row>
     <row r="87" spans="13:13">
-      <c r="M87" s="7"/>
+      <c r="M87" s="26"/>
     </row>
     <row r="88" spans="13:13">
-      <c r="M88" s="7"/>
+      <c r="M88" s="26"/>
     </row>
     <row r="89" spans="13:13">
-      <c r="M89" s="7"/>
+      <c r="M89" s="26"/>
     </row>
     <row r="90" spans="13:13">
-      <c r="M90" s="7"/>
+      <c r="M90" s="26"/>
     </row>
     <row r="91" spans="13:13">
-      <c r="M91" s="7"/>
+      <c r="M91" s="26"/>
     </row>
     <row r="92" spans="13:13">
-      <c r="M92" s="7"/>
+      <c r="M92" s="26"/>
     </row>
     <row r="93" spans="13:13">
-      <c r="M93" s="7"/>
+      <c r="M93" s="26"/>
     </row>
     <row r="94" spans="13:13">
-      <c r="M94" s="7"/>
+      <c r="M94" s="26"/>
     </row>
     <row r="95" spans="13:13">
-      <c r="M95" s="7"/>
+      <c r="M95" s="26"/>
     </row>
     <row r="96" spans="13:13">
-      <c r="M96" s="7"/>
+      <c r="M96" s="26"/>
     </row>
     <row r="97" spans="13:13">
-      <c r="M97" s="7"/>
+      <c r="M97" s="26"/>
     </row>
     <row r="98" spans="13:13">
-      <c r="M98" s="7"/>
+      <c r="M98" s="26"/>
     </row>
     <row r="99" spans="13:13">
-      <c r="M99" s="7"/>
+      <c r="M99" s="26"/>
     </row>
     <row r="100" spans="13:13">
-      <c r="M100" s="7"/>
+      <c r="M100" s="26"/>
     </row>
     <row r="101" spans="13:13">
-      <c r="M101" s="7"/>
+      <c r="M101" s="26"/>
     </row>
     <row r="102" spans="13:13">
-      <c r="M102" s="7"/>
+      <c r="M102" s="26"/>
     </row>
     <row r="103" spans="13:13">
-      <c r="M103" s="7"/>
+      <c r="M103" s="26"/>
     </row>
     <row r="104" spans="13:13">
-      <c r="M104" s="7"/>
+      <c r="M104" s="26"/>
     </row>
     <row r="105" spans="13:13">
-      <c r="M105" s="7"/>
+      <c r="M105" s="26"/>
     </row>
     <row r="106" spans="13:13">
-      <c r="M106" s="7"/>
+      <c r="M106" s="26"/>
     </row>
     <row r="107" spans="13:13">
-      <c r="M107" s="7"/>
+      <c r="M107" s="26"/>
     </row>
     <row r="108" spans="13:13">
-      <c r="M108" s="7"/>
+      <c r="M108" s="26"/>
     </row>
     <row r="109" spans="13:13">
-      <c r="M109" s="7"/>
+      <c r="M109" s="26"/>
     </row>
     <row r="110" spans="13:13">
-      <c r="M110" s="7"/>
+      <c r="M110" s="26"/>
     </row>
     <row r="111" spans="13:13">
-      <c r="M111" s="7"/>
+      <c r="M111" s="26"/>
     </row>
     <row r="112" spans="13:13">
-      <c r="M112" s="7"/>
+      <c r="M112" s="26"/>
     </row>
     <row r="113" spans="13:13">
-      <c r="M113" s="7"/>
+      <c r="M113" s="26"/>
     </row>
     <row r="114" spans="13:13">
-      <c r="M114" s="7"/>
+      <c r="M114" s="26"/>
     </row>
     <row r="115" spans="13:13">
-      <c r="M115" s="7"/>
+      <c r="M115" s="26"/>
     </row>
     <row r="116" spans="13:13">
-      <c r="M116" s="7"/>
+      <c r="M116" s="26"/>
     </row>
     <row r="117" spans="13:13">
-      <c r="M117" s="7"/>
+      <c r="M117" s="26"/>
     </row>
     <row r="118" spans="13:13">
-      <c r="M118" s="7"/>
+      <c r="M118" s="26"/>
     </row>
     <row r="119" spans="13:13">
-      <c r="M119" s="7"/>
+      <c r="M119" s="26"/>
     </row>
     <row r="120" spans="13:13">
-      <c r="M120" s="7"/>
+      <c r="M120" s="26"/>
     </row>
     <row r="121" spans="13:13">
-      <c r="M121" s="7"/>
+      <c r="M121" s="26"/>
     </row>
     <row r="122" spans="13:13">
-      <c r="M122" s="7"/>
+      <c r="M122" s="26"/>
     </row>
     <row r="123" spans="13:13">
-      <c r="M123" s="7"/>
+      <c r="M123" s="26"/>
     </row>
     <row r="124" spans="13:13">
-      <c r="M124" s="7"/>
+      <c r="M124" s="26"/>
     </row>
     <row r="125" spans="13:13">
-      <c r="M125" s="7"/>
+      <c r="M125" s="26"/>
     </row>
     <row r="126" spans="13:13">
-      <c r="M126" s="7"/>
+      <c r="M126" s="26"/>
     </row>
     <row r="127" spans="13:13">
-      <c r="M127" s="7"/>
+      <c r="M127" s="26"/>
     </row>
     <row r="128" spans="13:13">
-      <c r="M128" s="7"/>
+      <c r="M128" s="26"/>
     </row>
     <row r="129" spans="13:13">
-      <c r="M129" s="7"/>
+      <c r="M129" s="26"/>
     </row>
     <row r="130" spans="13:13">
-      <c r="M130" s="7"/>
+      <c r="M130" s="26"/>
     </row>
     <row r="131" spans="13:13">
-      <c r="M131" s="7"/>
+      <c r="M131" s="26"/>
     </row>
     <row r="132" spans="13:13">
-      <c r="M132" s="7"/>
+      <c r="M132" s="26"/>
     </row>
     <row r="133" spans="13:13">
-      <c r="M133" s="7"/>
+      <c r="M133" s="26"/>
     </row>
     <row r="134" spans="13:13">
-      <c r="M134" s="7"/>
+      <c r="M134" s="26"/>
     </row>
     <row r="135" spans="13:13">
-      <c r="M135" s="7"/>
+      <c r="M135" s="26"/>
     </row>
     <row r="136" spans="13:13">
-      <c r="M136" s="7"/>
+      <c r="M136" s="26"/>
     </row>
     <row r="137" spans="13:13">
-      <c r="M137" s="7"/>
+      <c r="M137" s="26"/>
     </row>
     <row r="138" spans="13:13">
-      <c r="M138" s="7"/>
+      <c r="M138" s="26"/>
     </row>
     <row r="139" spans="13:13">
-      <c r="M139" s="7"/>
+      <c r="M139" s="26"/>
     </row>
     <row r="140" spans="13:13">
-      <c r="M140" s="7"/>
+      <c r="M140" s="26"/>
     </row>
     <row r="141" spans="13:13">
-      <c r="M141" s="7"/>
+      <c r="M141" s="26"/>
     </row>
     <row r="142" spans="13:13">
-      <c r="M142" s="7"/>
+      <c r="M142" s="26"/>
     </row>
     <row r="143" spans="13:13">
-      <c r="M143" s="7"/>
+      <c r="M143" s="26"/>
     </row>
     <row r="144" spans="13:13">
-      <c r="M144" s="7"/>
+      <c r="M144" s="26"/>
     </row>
     <row r="145" spans="13:13">
-      <c r="M145" s="7"/>
+      <c r="M145" s="26"/>
     </row>
     <row r="146" spans="13:13">
-      <c r="M146" s="7"/>
+      <c r="M146" s="26"/>
     </row>
     <row r="147" spans="13:13">
-      <c r="M147" s="7"/>
+      <c r="M147" s="26"/>
     </row>
     <row r="148" spans="13:13">
-      <c r="M148" s="7"/>
+      <c r="M148" s="26"/>
     </row>
     <row r="149" spans="13:13">
-      <c r="M149" s="7"/>
+      <c r="M149" s="26"/>
     </row>
     <row r="150" spans="13:13">
-      <c r="M150" s="7"/>
+      <c r="M150" s="26"/>
     </row>
     <row r="151" spans="13:13">
-      <c r="M151" s="7"/>
+      <c r="M151" s="26"/>
     </row>
     <row r="152" spans="13:13">
-      <c r="M152" s="7"/>
+      <c r="M152" s="26"/>
     </row>
     <row r="153" spans="13:13">
-      <c r="M153" s="7"/>
+      <c r="M153" s="26"/>
     </row>
     <row r="154" spans="13:13">
-      <c r="M154" s="7"/>
+      <c r="M154" s="26"/>
     </row>
     <row r="155" spans="13:13">
-      <c r="M155" s="7"/>
+      <c r="M155" s="26"/>
     </row>
     <row r="156" spans="13:13">
-      <c r="M156" s="7"/>
+      <c r="M156" s="26"/>
     </row>
     <row r="157" spans="13:13">
-      <c r="M157" s="7"/>
+      <c r="M157" s="26"/>
     </row>
     <row r="158" spans="13:13">
-      <c r="M158" s="7"/>
+      <c r="M158" s="26"/>
     </row>
     <row r="159" spans="13:13">
-      <c r="M159" s="7"/>
+      <c r="M159" s="26"/>
     </row>
     <row r="160" spans="13:13">
-      <c r="M160" s="7"/>
+      <c r="M160" s="26"/>
     </row>
     <row r="161" spans="13:13">
-      <c r="M161" s="7"/>
+      <c r="M161" s="26"/>
     </row>
     <row r="162" spans="13:13">
-      <c r="M162" s="7"/>
+      <c r="M162" s="26"/>
     </row>
     <row r="163" spans="13:13">
-      <c r="M163" s="7"/>
+      <c r="M163" s="26"/>
     </row>
     <row r="164" spans="13:13">
-      <c r="M164" s="7"/>
+      <c r="M164" s="26"/>
     </row>
     <row r="165" spans="13:13">
-      <c r="M165" s="7"/>
+      <c r="M165" s="26"/>
     </row>
     <row r="166" spans="13:13">
-      <c r="M166" s="7"/>
+      <c r="M166" s="26"/>
     </row>
     <row r="167" spans="13:13">
-      <c r="M167" s="7"/>
+      <c r="M167" s="26"/>
     </row>
     <row r="168" spans="13:13">
-      <c r="M168" s="7"/>
+      <c r="M168" s="26"/>
     </row>
     <row r="169" spans="13:13">
-      <c r="M169" s="7"/>
+      <c r="M169" s="26"/>
     </row>
     <row r="170" spans="13:13">
-      <c r="M170" s="7"/>
+      <c r="M170" s="26"/>
     </row>
     <row r="171" spans="13:13">
-      <c r="M171" s="7"/>
+      <c r="M171" s="26"/>
     </row>
     <row r="172" spans="13:13">
-      <c r="M172" s="7"/>
+      <c r="M172" s="26"/>
     </row>
     <row r="173" spans="13:13">
-      <c r="M173" s="7"/>
+      <c r="M173" s="26"/>
     </row>
     <row r="174" spans="13:13">
-      <c r="M174" s="7"/>
+      <c r="M174" s="26"/>
     </row>
     <row r="175" spans="13:13">
-      <c r="M175" s="7"/>
+      <c r="M175" s="26"/>
     </row>
     <row r="176" spans="13:13">
-      <c r="M176" s="7"/>
+      <c r="M176" s="26"/>
     </row>
     <row r="177" spans="13:13">
-      <c r="M177" s="7"/>
+      <c r="M177" s="26"/>
     </row>
     <row r="178" spans="13:13">
-      <c r="M178" s="7"/>
+      <c r="M178" s="26"/>
     </row>
     <row r="179" spans="13:13">
-      <c r="M179" s="7"/>
+      <c r="M179" s="26"/>
     </row>
     <row r="180" spans="13:13">
-      <c r="M180" s="7"/>
+      <c r="M180" s="26"/>
     </row>
     <row r="181" spans="13:13">
-      <c r="M181" s="7"/>
+      <c r="M181" s="26"/>
     </row>
     <row r="182" spans="13:13">
-      <c r="M182" s="7"/>
+      <c r="M182" s="26"/>
     </row>
     <row r="183" spans="13:13">
-      <c r="M183" s="7"/>
+      <c r="M183" s="26"/>
     </row>
     <row r="184" spans="13:13">
-      <c r="M184" s="7"/>
+      <c r="M184" s="26"/>
     </row>
     <row r="185" spans="13:13">
-      <c r="M185" s="7"/>
+      <c r="M185" s="26"/>
     </row>
     <row r="186" spans="13:13">
-      <c r="M186" s="7"/>
+      <c r="M186" s="26"/>
     </row>
     <row r="187" spans="13:13">
-      <c r="M187" s="7"/>
+      <c r="M187" s="26"/>
     </row>
     <row r="188" spans="13:13">
-      <c r="M188" s="7"/>
+      <c r="M188" s="26"/>
     </row>
     <row r="189" spans="13:13">
-      <c r="M189" s="7"/>
+      <c r="M189" s="26"/>
     </row>
     <row r="190" spans="13:13">
-      <c r="M190" s="7"/>
+      <c r="M190" s="26"/>
     </row>
     <row r="191" spans="13:13">
-      <c r="M191" s="7"/>
+      <c r="M191" s="26"/>
     </row>
     <row r="192" spans="13:13">
-      <c r="M192" s="7"/>
+      <c r="M192" s="26"/>
     </row>
     <row r="193" spans="13:13">
-      <c r="M193" s="7"/>
+      <c r="M193" s="26"/>
     </row>
     <row r="194" spans="13:13">
-      <c r="M194" s="7"/>
+      <c r="M194" s="26"/>
     </row>
     <row r="195" spans="13:13">
-      <c r="M195" s="7"/>
+      <c r="M195" s="26"/>
     </row>
     <row r="196" spans="13:13">
-      <c r="M196" s="7"/>
+      <c r="M196" s="26"/>
     </row>
     <row r="197" spans="13:13">
-      <c r="M197" s="7"/>
+      <c r="M197" s="26"/>
     </row>
     <row r="198" spans="13:13">
-      <c r="M198" s="7"/>
+      <c r="M198" s="26"/>
     </row>
     <row r="199" spans="13:13">
-      <c r="M199" s="7"/>
+      <c r="M199" s="26"/>
     </row>
     <row r="200" spans="13:13">
-      <c r="M200" s="7"/>
+      <c r="M200" s="26"/>
     </row>
     <row r="201" spans="13:13">
-      <c r="M201" s="7"/>
+      <c r="M201" s="26"/>
     </row>
     <row r="202" spans="13:13">
-      <c r="M202" s="7"/>
+      <c r="M202" s="26"/>
     </row>
     <row r="203" spans="13:13">
-      <c r="M203" s="7"/>
+      <c r="M203" s="26"/>
     </row>
     <row r="204" spans="13:13">
-      <c r="M204" s="7"/>
+      <c r="M204" s="26"/>
     </row>
     <row r="205" spans="13:13">
-      <c r="M205" s="7"/>
+      <c r="M205" s="26"/>
     </row>
     <row r="206" spans="13:13">
-      <c r="M206" s="7"/>
+      <c r="M206" s="26"/>
     </row>
     <row r="207" spans="13:13">
-      <c r="M207" s="7"/>
+      <c r="M207" s="26"/>
     </row>
     <row r="208" spans="13:13">
-      <c r="M208" s="7"/>
+      <c r="M208" s="26"/>
     </row>
     <row r="209" spans="13:13">
-      <c r="M209" s="7"/>
+      <c r="M209" s="26"/>
     </row>
     <row r="210" spans="13:13">
-      <c r="M210" s="7"/>
+      <c r="M210" s="26"/>
     </row>
     <row r="211" spans="13:13">
-      <c r="M211" s="7"/>
+      <c r="M211" s="26"/>
     </row>
     <row r="212" spans="13:13">
-      <c r="M212" s="7"/>
+      <c r="M212" s="26"/>
     </row>
     <row r="213" spans="13:13">
-      <c r="M213" s="7"/>
+      <c r="M213" s="26"/>
     </row>
     <row r="214" spans="13:13">
-      <c r="M214" s="7"/>
+      <c r="M214" s="26"/>
     </row>
     <row r="215" spans="13:13">
-      <c r="M215" s="7"/>
+      <c r="M215" s="26"/>
     </row>
     <row r="216" spans="13:13">
-      <c r="M216" s="7"/>
+      <c r="M216" s="26"/>
     </row>
     <row r="217" spans="13:13">
-      <c r="M217" s="7"/>
+      <c r="M217" s="26"/>
     </row>
     <row r="218" spans="13:13">
-      <c r="M218" s="7"/>
+      <c r="M218" s="26"/>
     </row>
     <row r="219" spans="13:13">
-      <c r="M219" s="7"/>
+      <c r="M219" s="26"/>
     </row>
     <row r="220" spans="13:13">
-      <c r="M220" s="7"/>
+      <c r="M220" s="26"/>
     </row>
     <row r="221" spans="13:13">
-      <c r="M221" s="7"/>
+      <c r="M221" s="26"/>
     </row>
     <row r="222" spans="13:13">
-      <c r="M222" s="7"/>
+      <c r="M222" s="26"/>
     </row>
     <row r="223" spans="13:13">
-      <c r="M223" s="7"/>
+      <c r="M223" s="26"/>
     </row>
     <row r="224" spans="13:13">
-      <c r="M224" s="7"/>
+      <c r="M224" s="26"/>
     </row>
     <row r="225" spans="13:13">
-      <c r="M225" s="7"/>
+      <c r="M225" s="26"/>
     </row>
     <row r="226" spans="13:13">
-      <c r="M226" s="7"/>
+      <c r="M226" s="26"/>
     </row>
     <row r="227" spans="13:13">
-      <c r="M227" s="7"/>
+      <c r="M227" s="26"/>
     </row>
     <row r="228" spans="13:13">
-      <c r="M228" s="7"/>
+      <c r="M228" s="26"/>
     </row>
     <row r="229" spans="13:13">
-      <c r="M229" s="7"/>
+      <c r="M229" s="26"/>
     </row>
     <row r="230" spans="13:13">
-      <c r="M230" s="7"/>
+      <c r="M230" s="26"/>
     </row>
     <row r="231" spans="13:13">
-      <c r="M231" s="7"/>
+      <c r="M231" s="26"/>
     </row>
     <row r="232" spans="13:13">
-      <c r="M232" s="7"/>
+      <c r="M232" s="26"/>
     </row>
     <row r="233" spans="13:13">
-      <c r="M233" s="7"/>
+      <c r="M233" s="26"/>
     </row>
     <row r="234" spans="13:13">
-      <c r="M234" s="7"/>
+      <c r="M234" s="26"/>
     </row>
     <row r="235" spans="13:13">
-      <c r="M235" s="7"/>
+      <c r="M235" s="26"/>
     </row>
     <row r="236" spans="13:13">
-      <c r="M236" s="7"/>
+      <c r="M236" s="26"/>
     </row>
     <row r="237" spans="13:13">
-      <c r="M237" s="7"/>
+      <c r="M237" s="26"/>
     </row>
     <row r="238" spans="13:13">
-      <c r="M238" s="7"/>
+      <c r="M238" s="26"/>
     </row>
     <row r="239" spans="13:13">
-      <c r="M239" s="7"/>
+      <c r="M239" s="26"/>
     </row>
     <row r="240" spans="13:13">
-      <c r="M240" s="7"/>
+      <c r="M240" s="26"/>
     </row>
     <row r="241" spans="13:13">
-      <c r="M241" s="7"/>
+      <c r="M241" s="26"/>
     </row>
     <row r="242" spans="13:13">
-      <c r="M242" s="7"/>
+      <c r="M242" s="26"/>
     </row>
     <row r="243" spans="13:13">
-      <c r="M243" s="7"/>
+      <c r="M243" s="26"/>
     </row>
     <row r="244" spans="13:13">
-      <c r="M244" s="7"/>
+      <c r="M244" s="26"/>
     </row>
     <row r="245" spans="13:13">
-      <c r="M245" s="7"/>
+      <c r="M245" s="26"/>
     </row>
     <row r="246" spans="13:13">
-      <c r="M246" s="7"/>
+      <c r="M246" s="26"/>
     </row>
     <row r="247" spans="13:13">
-      <c r="M247" s="7"/>
+      <c r="M247" s="26"/>
     </row>
     <row r="248" spans="13:13">
-      <c r="M248" s="7"/>
+      <c r="M248" s="26"/>
     </row>
     <row r="249" spans="13:13">
-      <c r="M249" s="7"/>
+      <c r="M249" s="26"/>
     </row>
     <row r="250" spans="13:13">
-      <c r="M250" s="7"/>
+      <c r="M250" s="26"/>
     </row>
     <row r="251" spans="13:13">
-      <c r="M251" s="7"/>
+      <c r="M251" s="26"/>
     </row>
     <row r="252" spans="13:13">
-      <c r="M252" s="7"/>
+      <c r="M252" s="26"/>
     </row>
     <row r="253" spans="13:13">
-      <c r="M253" s="7"/>
+      <c r="M253" s="26"/>
     </row>
     <row r="254" spans="13:13">
-      <c r="M254" s="7"/>
+      <c r="M254" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LubanTools/DesignerConfigs/Datas/Build_建筑表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/Build_建筑表.xlsx
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -631,7 +631,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,12 +641,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,7 +1012,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1042,16 +1036,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1060,89 +1054,89 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1167,14 +1161,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1184,9 +1175,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1205,17 +1193,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -1569,7 +1551,7 @@
   <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1622,7 +1604,7 @@
       <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="9" t="s">
@@ -1663,7 +1645,7 @@
       <c r="K2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="8" t="s">
@@ -1704,7 +1686,7 @@
       <c r="K3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="8" t="s">
@@ -1712,1696 +1694,1750 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>10101</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="16" t="str">
+      <c r="D5" s="14" t="str">
         <f t="shared" ref="D5:D31" si="0">"building_"&amp;B5</f>
         <v>building_10101</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>3</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <v>3</v>
       </c>
-      <c r="G5" s="16">
-        <v>1</v>
-      </c>
-      <c r="H5" s="18">
-        <v>1</v>
-      </c>
-      <c r="I5" s="19">
+      <c r="G5" s="14">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+      <c r="I5" s="17">
         <v>0</v>
       </c>
-      <c r="J5" s="19">
-        <v>2</v>
-      </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="19"/>
+      <c r="J5" s="17">
+        <v>2</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="21">
+      <c r="B6" s="19">
         <v>10201</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="16" t="str">
+      <c r="D6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_10201</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>3</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>3</v>
       </c>
-      <c r="G6" s="21">
-        <v>1</v>
-      </c>
-      <c r="H6" s="22">
-        <v>2</v>
-      </c>
-      <c r="I6" s="19">
+      <c r="G6" s="19">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>2</v>
+      </c>
+      <c r="I6" s="17">
         <v>0</v>
       </c>
-      <c r="J6" s="19">
-        <v>2</v>
-      </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="19"/>
+      <c r="J6" s="17">
+        <v>2</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" s="21">
+      <c r="B7" s="19">
         <v>10301</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="16" t="str">
+      <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_10301</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>3</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>3</v>
       </c>
-      <c r="G7" s="21">
-        <v>1</v>
-      </c>
-      <c r="H7" s="22">
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14">
         <v>3</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="17">
         <v>0</v>
       </c>
-      <c r="J7" s="19">
-        <v>2</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="24"/>
+      <c r="J7" s="17">
+        <v>2</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="21">
+      <c r="B8" s="19">
         <v>10401</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="16" t="str">
+      <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_10401</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>3</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>3</v>
       </c>
-      <c r="G8" s="21">
-        <v>1</v>
-      </c>
-      <c r="H8" s="22">
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
         <v>4</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="17">
         <v>0</v>
       </c>
-      <c r="J8" s="19">
-        <v>2</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
+      <c r="J8" s="17">
+        <v>2</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="21">
+      <c r="B9" s="19">
         <v>20101</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="16" t="str">
+      <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_20101</v>
       </c>
-      <c r="E9" s="21">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21">
-        <v>1</v>
-      </c>
-      <c r="G9" s="21">
-        <v>2</v>
-      </c>
-      <c r="H9" s="22">
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>3</v>
+      </c>
+      <c r="H9" s="14">
         <v>5</v>
       </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="19">
-        <v>2</v>
-      </c>
-      <c r="K9" s="19" t="str">
+      <c r="I9" s="17">
+        <v>1</v>
+      </c>
+      <c r="J9" s="17">
+        <v>2</v>
+      </c>
+      <c r="K9" s="17" t="str">
         <f>LEFT(B9,3)</f>
         <v>201</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="21">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19">
         <v>20201</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="16" t="str">
+      <c r="D10" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_20201</v>
       </c>
-      <c r="E10" s="21">
-        <v>2</v>
-      </c>
-      <c r="F10" s="21">
-        <v>2</v>
-      </c>
-      <c r="G10" s="21">
-        <v>2</v>
-      </c>
-      <c r="H10" s="22">
+      <c r="E10" s="19">
+        <v>2</v>
+      </c>
+      <c r="F10" s="19">
+        <v>2</v>
+      </c>
+      <c r="G10" s="19">
+        <v>3</v>
+      </c>
+      <c r="H10" s="14">
         <v>6</v>
       </c>
-      <c r="I10" s="19">
-        <v>1</v>
-      </c>
-      <c r="J10" s="19">
-        <v>2</v>
-      </c>
-      <c r="K10" s="19" t="str">
+      <c r="I10" s="17">
+        <v>1</v>
+      </c>
+      <c r="J10" s="17">
+        <v>2</v>
+      </c>
+      <c r="K10" s="17" t="str">
         <f t="shared" ref="K10:K29" si="1">LEFT(B10,3)</f>
         <v>202</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="B11" s="21">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="19">
         <v>20301</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="16" t="str">
+      <c r="D11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_20301</v>
       </c>
-      <c r="E11" s="21">
-        <v>2</v>
-      </c>
-      <c r="F11" s="21">
-        <v>2</v>
-      </c>
-      <c r="G11" s="21">
-        <v>2</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="E11" s="19">
+        <v>2</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2</v>
+      </c>
+      <c r="G11" s="19">
+        <v>2</v>
+      </c>
+      <c r="H11" s="14">
         <v>7</v>
       </c>
-      <c r="I11" s="19">
-        <v>1</v>
-      </c>
-      <c r="J11" s="19">
-        <v>2</v>
-      </c>
-      <c r="K11" s="19" t="str">
+      <c r="I11" s="17">
+        <v>1</v>
+      </c>
+      <c r="J11" s="17">
+        <v>2</v>
+      </c>
+      <c r="K11" s="17" t="str">
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="21">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="19">
         <v>30101</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="16" t="str">
+      <c r="D12" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_30101</v>
       </c>
-      <c r="E12" s="21">
-        <v>1</v>
-      </c>
-      <c r="F12" s="21">
-        <v>1</v>
-      </c>
-      <c r="G12" s="21">
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
+      <c r="G12" s="19">
         <v>3</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="14">
         <v>8</v>
       </c>
-      <c r="I12" s="19">
-        <v>1</v>
-      </c>
-      <c r="J12" s="19">
-        <v>2</v>
-      </c>
-      <c r="K12" s="19" t="str">
+      <c r="I12" s="17">
+        <v>1</v>
+      </c>
+      <c r="J12" s="17">
+        <v>2</v>
+      </c>
+      <c r="K12" s="17" t="str">
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="19"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="21">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="19">
         <v>30201</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="16" t="str">
+      <c r="D13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_30201</v>
       </c>
-      <c r="E13" s="21">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21">
-        <v>1</v>
-      </c>
-      <c r="G13" s="21">
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19">
         <v>3</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="14">
         <v>9</v>
       </c>
-      <c r="I13" s="19">
-        <v>1</v>
-      </c>
-      <c r="J13" s="19">
-        <v>2</v>
-      </c>
-      <c r="K13" s="19" t="str">
+      <c r="I13" s="17">
+        <v>1</v>
+      </c>
+      <c r="J13" s="17">
+        <v>2</v>
+      </c>
+      <c r="K13" s="17" t="str">
         <f t="shared" si="1"/>
         <v>302</v>
       </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="21">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="19">
         <v>30301</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="16" t="str">
+      <c r="D14" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_30301</v>
       </c>
-      <c r="E14" s="21">
-        <v>1</v>
-      </c>
-      <c r="F14" s="21">
-        <v>1</v>
-      </c>
-      <c r="G14" s="21">
+      <c r="E14" s="19">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1</v>
+      </c>
+      <c r="G14" s="19">
         <v>3</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="14">
         <v>10</v>
       </c>
-      <c r="I14" s="19">
-        <v>1</v>
-      </c>
-      <c r="J14" s="19">
-        <v>2</v>
-      </c>
-      <c r="K14" s="19" t="str">
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+      <c r="J14" s="17">
+        <v>2</v>
+      </c>
+      <c r="K14" s="17" t="str">
         <f t="shared" si="1"/>
         <v>303</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="19"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="21">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="19">
         <v>30401</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="16" t="str">
+      <c r="D15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_30401</v>
       </c>
-      <c r="E15" s="21">
-        <v>1</v>
-      </c>
-      <c r="F15" s="21">
-        <v>1</v>
-      </c>
-      <c r="G15" s="21">
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
         <v>3</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="14">
         <v>11</v>
       </c>
-      <c r="I15" s="19">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19">
-        <v>2</v>
-      </c>
-      <c r="K15" s="19" t="str">
+      <c r="I15" s="17">
+        <v>1</v>
+      </c>
+      <c r="J15" s="17">
+        <v>2</v>
+      </c>
+      <c r="K15" s="17" t="str">
         <f t="shared" si="1"/>
         <v>304</v>
       </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="19"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="21">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="19">
         <v>40101</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="16" t="str">
+      <c r="D16" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_40101</v>
       </c>
-      <c r="E16" s="21">
-        <v>2</v>
-      </c>
-      <c r="F16" s="21">
-        <v>2</v>
-      </c>
-      <c r="G16" s="21">
+      <c r="E16" s="19">
+        <v>2</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2</v>
+      </c>
+      <c r="G16" s="19">
         <v>4</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="14">
         <v>12</v>
       </c>
-      <c r="I16" s="19">
-        <v>1</v>
-      </c>
-      <c r="J16" s="19">
-        <v>2</v>
-      </c>
-      <c r="K16" s="19" t="str">
+      <c r="I16" s="17">
+        <v>1</v>
+      </c>
+      <c r="J16" s="17">
+        <v>2</v>
+      </c>
+      <c r="K16" s="17" t="str">
         <f t="shared" si="1"/>
         <v>401</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="19"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="21">
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="19">
         <v>40201</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="16" t="str">
+      <c r="D17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_40201</v>
       </c>
-      <c r="E17" s="21">
-        <v>2</v>
-      </c>
-      <c r="F17" s="21">
-        <v>2</v>
-      </c>
-      <c r="G17" s="21">
+      <c r="E17" s="19">
+        <v>2</v>
+      </c>
+      <c r="F17" s="19">
+        <v>2</v>
+      </c>
+      <c r="G17" s="19">
         <v>4</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="14">
         <v>13</v>
       </c>
-      <c r="I17" s="19">
-        <v>1</v>
-      </c>
-      <c r="J17" s="19">
-        <v>2</v>
-      </c>
-      <c r="K17" s="19" t="str">
+      <c r="I17" s="17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="17">
+        <v>2</v>
+      </c>
+      <c r="K17" s="17" t="str">
         <f t="shared" si="1"/>
         <v>402</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="19"/>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="21">
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="19">
         <v>40301</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="16" t="str">
+      <c r="D18" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_40301</v>
       </c>
-      <c r="E18" s="21">
-        <v>2</v>
-      </c>
-      <c r="F18" s="21">
-        <v>2</v>
-      </c>
-      <c r="G18" s="21">
+      <c r="E18" s="19">
+        <v>2</v>
+      </c>
+      <c r="F18" s="19">
+        <v>2</v>
+      </c>
+      <c r="G18" s="19">
         <v>4</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="14">
         <v>14</v>
       </c>
-      <c r="I18" s="19">
-        <v>1</v>
-      </c>
-      <c r="J18" s="19">
-        <v>2</v>
-      </c>
-      <c r="K18" s="19" t="str">
+      <c r="I18" s="17">
+        <v>1</v>
+      </c>
+      <c r="J18" s="17">
+        <v>2</v>
+      </c>
+      <c r="K18" s="17" t="str">
         <f t="shared" si="1"/>
         <v>403</v>
       </c>
-      <c r="L18" s="25" t="s">
+      <c r="L18" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="M18" s="19"/>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="21">
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="B19" s="19">
         <v>40401</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="16" t="str">
+      <c r="D19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_40401</v>
       </c>
-      <c r="E19" s="21">
-        <v>2</v>
-      </c>
-      <c r="F19" s="21">
-        <v>2</v>
-      </c>
-      <c r="G19" s="21">
+      <c r="E19" s="19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="19">
         <v>4</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="14">
         <v>15</v>
       </c>
-      <c r="I19" s="19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="19">
-        <v>2</v>
-      </c>
-      <c r="K19" s="19" t="str">
+      <c r="I19" s="17">
+        <v>1</v>
+      </c>
+      <c r="J19" s="17">
+        <v>2</v>
+      </c>
+      <c r="K19" s="17" t="str">
         <f t="shared" si="1"/>
         <v>404</v>
       </c>
-      <c r="L19" s="23">
-        <v>1</v>
-      </c>
-      <c r="M19" s="19"/>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="21">
+      <c r="L19" s="20">
+        <v>1</v>
+      </c>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="19">
         <v>40501</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="16" t="str">
+      <c r="D20" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_40501</v>
       </c>
-      <c r="E20" s="21">
-        <v>2</v>
-      </c>
-      <c r="F20" s="21">
-        <v>2</v>
-      </c>
-      <c r="G20" s="21">
+      <c r="E20" s="19">
+        <v>2</v>
+      </c>
+      <c r="F20" s="19">
+        <v>2</v>
+      </c>
+      <c r="G20" s="19">
         <v>4</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="14">
         <v>16</v>
       </c>
-      <c r="I20" s="19">
-        <v>1</v>
-      </c>
-      <c r="J20" s="19">
-        <v>2</v>
-      </c>
-      <c r="K20" s="19" t="str">
+      <c r="I20" s="17">
+        <v>1</v>
+      </c>
+      <c r="J20" s="17">
+        <v>2</v>
+      </c>
+      <c r="K20" s="17" t="str">
         <f t="shared" si="1"/>
         <v>405</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="19"/>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="21">
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="19">
         <v>40601</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="16" t="str">
+      <c r="D21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_40601</v>
       </c>
-      <c r="E21" s="21">
-        <v>2</v>
-      </c>
-      <c r="F21" s="21">
-        <v>2</v>
-      </c>
-      <c r="G21" s="21">
+      <c r="E21" s="19">
+        <v>2</v>
+      </c>
+      <c r="F21" s="19">
+        <v>2</v>
+      </c>
+      <c r="G21" s="19">
         <v>4</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="14">
         <v>17</v>
       </c>
-      <c r="I21" s="19">
-        <v>1</v>
-      </c>
-      <c r="J21" s="19">
-        <v>2</v>
-      </c>
-      <c r="K21" s="19" t="str">
+      <c r="I21" s="17">
+        <v>1</v>
+      </c>
+      <c r="J21" s="17">
+        <v>2</v>
+      </c>
+      <c r="K21" s="17" t="str">
         <f t="shared" si="1"/>
         <v>406</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="L21" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="M21" s="19"/>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="21">
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="19">
         <v>50101</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="16" t="str">
+      <c r="D22" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_50101</v>
       </c>
-      <c r="E22" s="21">
-        <v>2</v>
-      </c>
-      <c r="F22" s="21">
-        <v>2</v>
-      </c>
-      <c r="G22" s="21">
+      <c r="E22" s="19">
+        <v>2</v>
+      </c>
+      <c r="F22" s="19">
+        <v>2</v>
+      </c>
+      <c r="G22" s="19">
         <v>5</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="14">
         <v>18</v>
       </c>
-      <c r="I22" s="19">
-        <v>1</v>
-      </c>
-      <c r="J22" s="19">
-        <v>2</v>
-      </c>
-      <c r="K22" s="19" t="str">
+      <c r="I22" s="17">
+        <v>1</v>
+      </c>
+      <c r="J22" s="17">
+        <v>2</v>
+      </c>
+      <c r="K22" s="17" t="str">
         <f t="shared" si="1"/>
         <v>501</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="L22" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="21">
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="19">
         <v>50201</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="16" t="str">
+      <c r="D23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_50201</v>
       </c>
-      <c r="E23" s="21">
-        <v>2</v>
-      </c>
-      <c r="F23" s="21">
-        <v>2</v>
-      </c>
-      <c r="G23" s="21">
+      <c r="E23" s="19">
+        <v>2</v>
+      </c>
+      <c r="F23" s="19">
+        <v>2</v>
+      </c>
+      <c r="G23" s="19">
         <v>5</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="14">
         <v>19</v>
       </c>
-      <c r="I23" s="19">
-        <v>1</v>
-      </c>
-      <c r="J23" s="19">
-        <v>2</v>
-      </c>
-      <c r="K23" s="19" t="str">
+      <c r="I23" s="17">
+        <v>1</v>
+      </c>
+      <c r="J23" s="17">
+        <v>2</v>
+      </c>
+      <c r="K23" s="17" t="str">
         <f t="shared" si="1"/>
         <v>502</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="L23" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="19"/>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="B24" s="21">
+      <c r="M23" s="17"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24" s="19">
         <v>50301</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="16" t="str">
+      <c r="D24" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_50301</v>
       </c>
-      <c r="E24" s="21">
-        <v>2</v>
-      </c>
-      <c r="F24" s="21">
-        <v>2</v>
-      </c>
-      <c r="G24" s="21">
+      <c r="E24" s="19">
+        <v>2</v>
+      </c>
+      <c r="F24" s="19">
+        <v>2</v>
+      </c>
+      <c r="G24" s="19">
         <v>5</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="14">
         <v>20</v>
       </c>
-      <c r="I24" s="19">
-        <v>1</v>
-      </c>
-      <c r="J24" s="19">
-        <v>2</v>
-      </c>
-      <c r="K24" s="19" t="str">
+      <c r="I24" s="17">
+        <v>1</v>
+      </c>
+      <c r="J24" s="17">
+        <v>2</v>
+      </c>
+      <c r="K24" s="17" t="str">
         <f t="shared" si="1"/>
         <v>503</v>
       </c>
-      <c r="L24" s="25" t="s">
+      <c r="L24" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="M24" s="19"/>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25" s="21">
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="19">
         <v>50401</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="16" t="str">
+      <c r="D25" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_50401</v>
       </c>
-      <c r="E25" s="21">
-        <v>2</v>
-      </c>
-      <c r="F25" s="21">
-        <v>2</v>
-      </c>
-      <c r="G25" s="21">
+      <c r="E25" s="19">
+        <v>2</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2</v>
+      </c>
+      <c r="G25" s="19">
         <v>5</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="14">
         <v>21</v>
       </c>
-      <c r="I25" s="19">
-        <v>1</v>
-      </c>
-      <c r="J25" s="19">
-        <v>2</v>
-      </c>
-      <c r="K25" s="19" t="str">
+      <c r="I25" s="17">
+        <v>1</v>
+      </c>
+      <c r="J25" s="17">
+        <v>2</v>
+      </c>
+      <c r="K25" s="17" t="str">
         <f t="shared" si="1"/>
         <v>504</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="M25" s="19"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="21">
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="19">
         <v>50501</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="16" t="str">
+      <c r="D26" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_50501</v>
       </c>
-      <c r="E26" s="21">
-        <v>2</v>
-      </c>
-      <c r="F26" s="21">
-        <v>2</v>
-      </c>
-      <c r="G26" s="21">
+      <c r="E26" s="19">
+        <v>2</v>
+      </c>
+      <c r="F26" s="19">
+        <v>2</v>
+      </c>
+      <c r="G26" s="19">
         <v>5</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="14">
         <v>22</v>
       </c>
-      <c r="I26" s="19">
-        <v>1</v>
-      </c>
-      <c r="J26" s="19">
-        <v>2</v>
-      </c>
-      <c r="K26" s="19" t="str">
+      <c r="I26" s="17">
+        <v>1</v>
+      </c>
+      <c r="J26" s="17">
+        <v>2</v>
+      </c>
+      <c r="K26" s="17" t="str">
         <f t="shared" si="1"/>
         <v>505</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="20">
         <v>3</v>
       </c>
-      <c r="M26" s="19"/>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27" s="21">
+      <c r="M26" s="17"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19">
         <v>50601</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="16" t="str">
+      <c r="D27" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_50601</v>
       </c>
-      <c r="E27" s="21">
-        <v>2</v>
-      </c>
-      <c r="F27" s="21">
-        <v>2</v>
-      </c>
-      <c r="G27" s="21">
+      <c r="E27" s="19">
+        <v>2</v>
+      </c>
+      <c r="F27" s="19">
+        <v>2</v>
+      </c>
+      <c r="G27" s="19">
         <v>5</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="14">
         <v>23</v>
       </c>
-      <c r="I27" s="19">
-        <v>1</v>
-      </c>
-      <c r="J27" s="19">
-        <v>2</v>
-      </c>
-      <c r="K27" s="19" t="str">
+      <c r="I27" s="17">
+        <v>1</v>
+      </c>
+      <c r="J27" s="17">
+        <v>2</v>
+      </c>
+      <c r="K27" s="17" t="str">
         <f t="shared" si="1"/>
         <v>506</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="L27" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="M27" s="19"/>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" s="21">
+      <c r="M27" s="17"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28" s="19">
         <v>50701</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="16" t="str">
+      <c r="D28" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_50701</v>
       </c>
-      <c r="E28" s="21">
-        <v>2</v>
-      </c>
-      <c r="F28" s="21">
-        <v>2</v>
-      </c>
-      <c r="G28" s="21">
+      <c r="E28" s="19">
+        <v>2</v>
+      </c>
+      <c r="F28" s="19">
+        <v>2</v>
+      </c>
+      <c r="G28" s="19">
         <v>5</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="14">
         <v>24</v>
       </c>
-      <c r="I28" s="19">
-        <v>1</v>
-      </c>
-      <c r="J28" s="19">
-        <v>2</v>
-      </c>
-      <c r="K28" s="19" t="str">
+      <c r="I28" s="17">
+        <v>1</v>
+      </c>
+      <c r="J28" s="17">
+        <v>2</v>
+      </c>
+      <c r="K28" s="17" t="str">
         <f t="shared" si="1"/>
         <v>507</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="L28" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="M28" s="19"/>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="21">
+      <c r="M28" s="17"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="19">
         <v>50801</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="16" t="str">
+      <c r="D29" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_50801</v>
       </c>
-      <c r="E29" s="21">
-        <v>2</v>
-      </c>
-      <c r="F29" s="21">
-        <v>2</v>
-      </c>
-      <c r="G29" s="21">
+      <c r="E29" s="19">
+        <v>2</v>
+      </c>
+      <c r="F29" s="19">
+        <v>2</v>
+      </c>
+      <c r="G29" s="19">
         <v>5</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="14">
         <v>25</v>
       </c>
-      <c r="I29" s="19">
-        <v>1</v>
-      </c>
-      <c r="J29" s="19">
-        <v>2</v>
-      </c>
-      <c r="K29" s="19" t="str">
+      <c r="I29" s="17">
+        <v>1</v>
+      </c>
+      <c r="J29" s="17">
+        <v>2</v>
+      </c>
+      <c r="K29" s="17" t="str">
         <f t="shared" si="1"/>
         <v>508</v>
       </c>
-      <c r="L29" s="25" t="s">
+      <c r="L29" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="M29" s="19"/>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30" s="21">
+      <c r="M29" s="17"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="19">
         <v>60101</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="16" t="str">
+      <c r="D30" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_60101</v>
       </c>
-      <c r="E30" s="21">
-        <v>2</v>
-      </c>
-      <c r="F30" s="21">
-        <v>2</v>
-      </c>
-      <c r="G30" s="21">
+      <c r="E30" s="19">
+        <v>2</v>
+      </c>
+      <c r="F30" s="19">
+        <v>2</v>
+      </c>
+      <c r="G30" s="19">
         <v>6</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="14">
         <v>601</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="17">
         <v>0</v>
       </c>
-      <c r="J30" s="19">
-        <v>2</v>
-      </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="19"/>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31" s="21">
+      <c r="J30" s="17">
+        <v>2</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="17"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="19">
         <v>70101</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="16" t="str">
+      <c r="D31" s="14" t="str">
         <f t="shared" si="0"/>
         <v>building_70101</v>
       </c>
-      <c r="E31" s="21">
-        <v>2</v>
-      </c>
-      <c r="F31" s="21">
-        <v>2</v>
-      </c>
-      <c r="G31" s="21">
+      <c r="E31" s="19">
+        <v>2</v>
+      </c>
+      <c r="F31" s="19">
+        <v>2</v>
+      </c>
+      <c r="G31" s="19">
         <v>7</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="14">
         <v>701</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="17">
         <v>0</v>
       </c>
-      <c r="J31" s="19">
-        <v>2</v>
-      </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="19"/>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="M32" s="26"/>
+      <c r="J31" s="17">
+        <v>2</v>
+      </c>
+      <c r="K31" s="17"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="17"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="M32" s="22"/>
     </row>
     <row r="33" spans="13:13">
-      <c r="M33" s="26"/>
+      <c r="M33" s="22"/>
     </row>
     <row r="34" spans="13:13">
-      <c r="M34" s="26"/>
+      <c r="M34" s="22"/>
     </row>
     <row r="35" spans="13:13">
-      <c r="M35" s="26"/>
+      <c r="M35" s="22"/>
     </row>
     <row r="36" spans="13:13">
-      <c r="M36" s="26"/>
+      <c r="M36" s="22"/>
     </row>
     <row r="37" spans="13:13">
-      <c r="M37" s="26"/>
+      <c r="M37" s="22"/>
     </row>
     <row r="38" spans="13:13">
-      <c r="M38" s="26"/>
+      <c r="M38" s="22"/>
     </row>
     <row r="39" spans="13:13">
-      <c r="M39" s="26"/>
+      <c r="M39" s="22"/>
     </row>
     <row r="40" spans="13:13">
-      <c r="M40" s="26"/>
+      <c r="M40" s="22"/>
     </row>
     <row r="41" spans="13:13">
-      <c r="M41" s="26"/>
+      <c r="M41" s="22"/>
     </row>
     <row r="42" spans="13:13">
-      <c r="M42" s="26"/>
+      <c r="M42" s="22"/>
     </row>
     <row r="43" spans="13:13">
-      <c r="M43" s="26"/>
+      <c r="M43" s="22"/>
     </row>
     <row r="44" spans="13:13">
-      <c r="M44" s="26"/>
+      <c r="M44" s="22"/>
     </row>
     <row r="45" spans="13:13">
-      <c r="M45" s="26"/>
+      <c r="M45" s="22"/>
     </row>
     <row r="46" spans="13:13">
-      <c r="M46" s="26"/>
+      <c r="M46" s="22"/>
     </row>
     <row r="47" spans="13:13">
-      <c r="M47" s="26"/>
+      <c r="M47" s="22"/>
     </row>
     <row r="48" spans="13:13">
-      <c r="M48" s="26"/>
+      <c r="M48" s="22"/>
     </row>
     <row r="49" spans="13:13">
-      <c r="M49" s="26"/>
+      <c r="M49" s="22"/>
     </row>
     <row r="50" spans="13:13">
-      <c r="M50" s="26"/>
+      <c r="M50" s="22"/>
     </row>
     <row r="51" spans="13:13">
-      <c r="M51" s="26"/>
+      <c r="M51" s="22"/>
     </row>
     <row r="52" spans="13:13">
-      <c r="M52" s="26"/>
+      <c r="M52" s="22"/>
     </row>
     <row r="53" spans="13:13">
-      <c r="M53" s="26"/>
+      <c r="M53" s="22"/>
     </row>
     <row r="54" spans="13:13">
-      <c r="M54" s="26"/>
+      <c r="M54" s="22"/>
     </row>
     <row r="55" spans="13:13">
-      <c r="M55" s="26"/>
+      <c r="M55" s="22"/>
     </row>
     <row r="56" spans="13:13">
-      <c r="M56" s="26"/>
+      <c r="M56" s="22"/>
     </row>
     <row r="57" spans="13:13">
-      <c r="M57" s="26"/>
+      <c r="M57" s="22"/>
     </row>
     <row r="58" spans="13:13">
-      <c r="M58" s="26"/>
+      <c r="M58" s="22"/>
     </row>
     <row r="59" spans="13:13">
-      <c r="M59" s="26"/>
+      <c r="M59" s="22"/>
     </row>
     <row r="60" spans="13:13">
-      <c r="M60" s="26"/>
+      <c r="M60" s="22"/>
     </row>
     <row r="61" spans="13:13">
-      <c r="M61" s="26"/>
+      <c r="M61" s="22"/>
     </row>
     <row r="62" spans="13:13">
-      <c r="M62" s="26"/>
+      <c r="M62" s="22"/>
     </row>
     <row r="63" spans="13:13">
-      <c r="M63" s="26"/>
+      <c r="M63" s="22"/>
     </row>
     <row r="64" spans="13:13">
-      <c r="M64" s="26"/>
+      <c r="M64" s="22"/>
     </row>
     <row r="65" spans="13:13">
-      <c r="M65" s="26"/>
+      <c r="M65" s="22"/>
     </row>
     <row r="66" spans="13:13">
-      <c r="M66" s="26"/>
+      <c r="M66" s="22"/>
     </row>
     <row r="67" spans="13:13">
-      <c r="M67" s="26"/>
+      <c r="M67" s="22"/>
     </row>
     <row r="68" spans="13:13">
-      <c r="M68" s="26"/>
+      <c r="M68" s="22"/>
     </row>
     <row r="69" spans="13:13">
-      <c r="M69" s="26"/>
+      <c r="M69" s="22"/>
     </row>
     <row r="70" spans="13:13">
-      <c r="M70" s="26"/>
+      <c r="M70" s="22"/>
     </row>
     <row r="71" spans="13:13">
-      <c r="M71" s="26"/>
+      <c r="M71" s="22"/>
     </row>
     <row r="72" spans="13:13">
-      <c r="M72" s="26"/>
+      <c r="M72" s="22"/>
     </row>
     <row r="73" spans="13:13">
-      <c r="M73" s="26"/>
+      <c r="M73" s="22"/>
     </row>
     <row r="74" spans="13:13">
-      <c r="M74" s="26"/>
+      <c r="M74" s="22"/>
     </row>
     <row r="75" spans="13:13">
-      <c r="M75" s="26"/>
+      <c r="M75" s="22"/>
     </row>
     <row r="76" spans="13:13">
-      <c r="M76" s="26"/>
+      <c r="M76" s="22"/>
     </row>
     <row r="77" spans="13:13">
-      <c r="M77" s="26"/>
+      <c r="M77" s="22"/>
     </row>
     <row r="78" spans="13:13">
-      <c r="M78" s="26"/>
+      <c r="M78" s="22"/>
     </row>
     <row r="79" spans="13:13">
-      <c r="M79" s="26"/>
+      <c r="M79" s="22"/>
     </row>
     <row r="80" spans="13:13">
-      <c r="M80" s="26"/>
+      <c r="M80" s="22"/>
     </row>
     <row r="81" spans="13:13">
-      <c r="M81" s="26"/>
+      <c r="M81" s="22"/>
     </row>
     <row r="82" spans="13:13">
-      <c r="M82" s="26"/>
+      <c r="M82" s="22"/>
     </row>
     <row r="83" spans="13:13">
-      <c r="M83" s="26"/>
+      <c r="M83" s="22"/>
     </row>
     <row r="84" spans="13:13">
-      <c r="M84" s="26"/>
+      <c r="M84" s="22"/>
     </row>
     <row r="85" spans="13:13">
-      <c r="M85" s="26"/>
+      <c r="M85" s="22"/>
     </row>
     <row r="86" spans="13:13">
-      <c r="M86" s="26"/>
+      <c r="M86" s="22"/>
     </row>
     <row r="87" spans="13:13">
-      <c r="M87" s="26"/>
+      <c r="M87" s="22"/>
     </row>
     <row r="88" spans="13:13">
-      <c r="M88" s="26"/>
+      <c r="M88" s="22"/>
     </row>
     <row r="89" spans="13:13">
-      <c r="M89" s="26"/>
+      <c r="M89" s="22"/>
     </row>
     <row r="90" spans="13:13">
-      <c r="M90" s="26"/>
+      <c r="M90" s="22"/>
     </row>
     <row r="91" spans="13:13">
-      <c r="M91" s="26"/>
+      <c r="M91" s="22"/>
     </row>
     <row r="92" spans="13:13">
-      <c r="M92" s="26"/>
+      <c r="M92" s="22"/>
     </row>
     <row r="93" spans="13:13">
-      <c r="M93" s="26"/>
+      <c r="M93" s="22"/>
     </row>
     <row r="94" spans="13:13">
-      <c r="M94" s="26"/>
+      <c r="M94" s="22"/>
     </row>
     <row r="95" spans="13:13">
-      <c r="M95" s="26"/>
+      <c r="M95" s="22"/>
     </row>
     <row r="96" spans="13:13">
-      <c r="M96" s="26"/>
+      <c r="M96" s="22"/>
     </row>
     <row r="97" spans="13:13">
-      <c r="M97" s="26"/>
+      <c r="M97" s="22"/>
     </row>
     <row r="98" spans="13:13">
-      <c r="M98" s="26"/>
+      <c r="M98" s="22"/>
     </row>
     <row r="99" spans="13:13">
-      <c r="M99" s="26"/>
+      <c r="M99" s="22"/>
     </row>
     <row r="100" spans="13:13">
-      <c r="M100" s="26"/>
+      <c r="M100" s="22"/>
     </row>
     <row r="101" spans="13:13">
-      <c r="M101" s="26"/>
+      <c r="M101" s="22"/>
     </row>
     <row r="102" spans="13:13">
-      <c r="M102" s="26"/>
+      <c r="M102" s="22"/>
     </row>
     <row r="103" spans="13:13">
-      <c r="M103" s="26"/>
+      <c r="M103" s="22"/>
     </row>
     <row r="104" spans="13:13">
-      <c r="M104" s="26"/>
+      <c r="M104" s="22"/>
     </row>
     <row r="105" spans="13:13">
-      <c r="M105" s="26"/>
+      <c r="M105" s="22"/>
     </row>
     <row r="106" spans="13:13">
-      <c r="M106" s="26"/>
+      <c r="M106" s="22"/>
     </row>
     <row r="107" spans="13:13">
-      <c r="M107" s="26"/>
+      <c r="M107" s="22"/>
     </row>
     <row r="108" spans="13:13">
-      <c r="M108" s="26"/>
+      <c r="M108" s="22"/>
     </row>
     <row r="109" spans="13:13">
-      <c r="M109" s="26"/>
+      <c r="M109" s="22"/>
     </row>
     <row r="110" spans="13:13">
-      <c r="M110" s="26"/>
+      <c r="M110" s="22"/>
     </row>
     <row r="111" spans="13:13">
-      <c r="M111" s="26"/>
+      <c r="M111" s="22"/>
     </row>
     <row r="112" spans="13:13">
-      <c r="M112" s="26"/>
+      <c r="M112" s="22"/>
     </row>
     <row r="113" spans="13:13">
-      <c r="M113" s="26"/>
+      <c r="M113" s="22"/>
     </row>
     <row r="114" spans="13:13">
-      <c r="M114" s="26"/>
+      <c r="M114" s="22"/>
     </row>
     <row r="115" spans="13:13">
-      <c r="M115" s="26"/>
+      <c r="M115" s="22"/>
     </row>
     <row r="116" spans="13:13">
-      <c r="M116" s="26"/>
+      <c r="M116" s="22"/>
     </row>
     <row r="117" spans="13:13">
-      <c r="M117" s="26"/>
+      <c r="M117" s="22"/>
     </row>
     <row r="118" spans="13:13">
-      <c r="M118" s="26"/>
+      <c r="M118" s="22"/>
     </row>
     <row r="119" spans="13:13">
-      <c r="M119" s="26"/>
+      <c r="M119" s="22"/>
     </row>
     <row r="120" spans="13:13">
-      <c r="M120" s="26"/>
+      <c r="M120" s="22"/>
     </row>
     <row r="121" spans="13:13">
-      <c r="M121" s="26"/>
+      <c r="M121" s="22"/>
     </row>
     <row r="122" spans="13:13">
-      <c r="M122" s="26"/>
+      <c r="M122" s="22"/>
     </row>
     <row r="123" spans="13:13">
-      <c r="M123" s="26"/>
+      <c r="M123" s="22"/>
     </row>
     <row r="124" spans="13:13">
-      <c r="M124" s="26"/>
+      <c r="M124" s="22"/>
     </row>
     <row r="125" spans="13:13">
-      <c r="M125" s="26"/>
+      <c r="M125" s="22"/>
     </row>
     <row r="126" spans="13:13">
-      <c r="M126" s="26"/>
+      <c r="M126" s="22"/>
     </row>
     <row r="127" spans="13:13">
-      <c r="M127" s="26"/>
+      <c r="M127" s="22"/>
     </row>
     <row r="128" spans="13:13">
-      <c r="M128" s="26"/>
+      <c r="M128" s="22"/>
     </row>
     <row r="129" spans="13:13">
-      <c r="M129" s="26"/>
+      <c r="M129" s="22"/>
     </row>
     <row r="130" spans="13:13">
-      <c r="M130" s="26"/>
+      <c r="M130" s="22"/>
     </row>
     <row r="131" spans="13:13">
-      <c r="M131" s="26"/>
+      <c r="M131" s="22"/>
     </row>
     <row r="132" spans="13:13">
-      <c r="M132" s="26"/>
+      <c r="M132" s="22"/>
     </row>
     <row r="133" spans="13:13">
-      <c r="M133" s="26"/>
+      <c r="M133" s="22"/>
     </row>
     <row r="134" spans="13:13">
-      <c r="M134" s="26"/>
+      <c r="M134" s="22"/>
     </row>
     <row r="135" spans="13:13">
-      <c r="M135" s="26"/>
+      <c r="M135" s="22"/>
     </row>
     <row r="136" spans="13:13">
-      <c r="M136" s="26"/>
+      <c r="M136" s="22"/>
     </row>
     <row r="137" spans="13:13">
-      <c r="M137" s="26"/>
+      <c r="M137" s="22"/>
     </row>
     <row r="138" spans="13:13">
-      <c r="M138" s="26"/>
+      <c r="M138" s="22"/>
     </row>
     <row r="139" spans="13:13">
-      <c r="M139" s="26"/>
+      <c r="M139" s="22"/>
     </row>
     <row r="140" spans="13:13">
-      <c r="M140" s="26"/>
+      <c r="M140" s="22"/>
     </row>
     <row r="141" spans="13:13">
-      <c r="M141" s="26"/>
+      <c r="M141" s="22"/>
     </row>
     <row r="142" spans="13:13">
-      <c r="M142" s="26"/>
+      <c r="M142" s="22"/>
     </row>
     <row r="143" spans="13:13">
-      <c r="M143" s="26"/>
+      <c r="M143" s="22"/>
     </row>
     <row r="144" spans="13:13">
-      <c r="M144" s="26"/>
+      <c r="M144" s="22"/>
     </row>
     <row r="145" spans="13:13">
-      <c r="M145" s="26"/>
+      <c r="M145" s="22"/>
     </row>
     <row r="146" spans="13:13">
-      <c r="M146" s="26"/>
+      <c r="M146" s="22"/>
     </row>
     <row r="147" spans="13:13">
-      <c r="M147" s="26"/>
+      <c r="M147" s="22"/>
     </row>
     <row r="148" spans="13:13">
-      <c r="M148" s="26"/>
+      <c r="M148" s="22"/>
     </row>
     <row r="149" spans="13:13">
-      <c r="M149" s="26"/>
+      <c r="M149" s="22"/>
     </row>
     <row r="150" spans="13:13">
-      <c r="M150" s="26"/>
+      <c r="M150" s="22"/>
     </row>
     <row r="151" spans="13:13">
-      <c r="M151" s="26"/>
+      <c r="M151" s="22"/>
     </row>
     <row r="152" spans="13:13">
-      <c r="M152" s="26"/>
+      <c r="M152" s="22"/>
     </row>
     <row r="153" spans="13:13">
-      <c r="M153" s="26"/>
+      <c r="M153" s="22"/>
     </row>
     <row r="154" spans="13:13">
-      <c r="M154" s="26"/>
+      <c r="M154" s="22"/>
     </row>
     <row r="155" spans="13:13">
-      <c r="M155" s="26"/>
+      <c r="M155" s="22"/>
     </row>
     <row r="156" spans="13:13">
-      <c r="M156" s="26"/>
+      <c r="M156" s="22"/>
     </row>
     <row r="157" spans="13:13">
-      <c r="M157" s="26"/>
+      <c r="M157" s="22"/>
     </row>
     <row r="158" spans="13:13">
-      <c r="M158" s="26"/>
+      <c r="M158" s="22"/>
     </row>
     <row r="159" spans="13:13">
-      <c r="M159" s="26"/>
+      <c r="M159" s="22"/>
     </row>
     <row r="160" spans="13:13">
-      <c r="M160" s="26"/>
+      <c r="M160" s="22"/>
     </row>
     <row r="161" spans="13:13">
-      <c r="M161" s="26"/>
+      <c r="M161" s="22"/>
     </row>
     <row r="162" spans="13:13">
-      <c r="M162" s="26"/>
+      <c r="M162" s="22"/>
     </row>
     <row r="163" spans="13:13">
-      <c r="M163" s="26"/>
+      <c r="M163" s="22"/>
     </row>
     <row r="164" spans="13:13">
-      <c r="M164" s="26"/>
+      <c r="M164" s="22"/>
     </row>
     <row r="165" spans="13:13">
-      <c r="M165" s="26"/>
+      <c r="M165" s="22"/>
     </row>
     <row r="166" spans="13:13">
-      <c r="M166" s="26"/>
+      <c r="M166" s="22"/>
     </row>
     <row r="167" spans="13:13">
-      <c r="M167" s="26"/>
+      <c r="M167" s="22"/>
     </row>
     <row r="168" spans="13:13">
-      <c r="M168" s="26"/>
+      <c r="M168" s="22"/>
     </row>
     <row r="169" spans="13:13">
-      <c r="M169" s="26"/>
+      <c r="M169" s="22"/>
     </row>
     <row r="170" spans="13:13">
-      <c r="M170" s="26"/>
+      <c r="M170" s="22"/>
     </row>
     <row r="171" spans="13:13">
-      <c r="M171" s="26"/>
+      <c r="M171" s="22"/>
     </row>
     <row r="172" spans="13:13">
-      <c r="M172" s="26"/>
+      <c r="M172" s="22"/>
     </row>
     <row r="173" spans="13:13">
-      <c r="M173" s="26"/>
+      <c r="M173" s="22"/>
     </row>
     <row r="174" spans="13:13">
-      <c r="M174" s="26"/>
+      <c r="M174" s="22"/>
     </row>
     <row r="175" spans="13:13">
-      <c r="M175" s="26"/>
+      <c r="M175" s="22"/>
     </row>
     <row r="176" spans="13:13">
-      <c r="M176" s="26"/>
+      <c r="M176" s="22"/>
     </row>
     <row r="177" spans="13:13">
-      <c r="M177" s="26"/>
+      <c r="M177" s="22"/>
     </row>
     <row r="178" spans="13:13">
-      <c r="M178" s="26"/>
+      <c r="M178" s="22"/>
     </row>
     <row r="179" spans="13:13">
-      <c r="M179" s="26"/>
+      <c r="M179" s="22"/>
     </row>
     <row r="180" spans="13:13">
-      <c r="M180" s="26"/>
+      <c r="M180" s="22"/>
     </row>
     <row r="181" spans="13:13">
-      <c r="M181" s="26"/>
+      <c r="M181" s="22"/>
     </row>
     <row r="182" spans="13:13">
-      <c r="M182" s="26"/>
+      <c r="M182" s="22"/>
     </row>
     <row r="183" spans="13:13">
-      <c r="M183" s="26"/>
+      <c r="M183" s="22"/>
     </row>
     <row r="184" spans="13:13">
-      <c r="M184" s="26"/>
+      <c r="M184" s="22"/>
     </row>
     <row r="185" spans="13:13">
-      <c r="M185" s="26"/>
+      <c r="M185" s="22"/>
     </row>
     <row r="186" spans="13:13">
-      <c r="M186" s="26"/>
+      <c r="M186" s="22"/>
     </row>
     <row r="187" spans="13:13">
-      <c r="M187" s="26"/>
+      <c r="M187" s="22"/>
     </row>
     <row r="188" spans="13:13">
-      <c r="M188" s="26"/>
+      <c r="M188" s="22"/>
     </row>
     <row r="189" spans="13:13">
-      <c r="M189" s="26"/>
+      <c r="M189" s="22"/>
     </row>
     <row r="190" spans="13:13">
-      <c r="M190" s="26"/>
+      <c r="M190" s="22"/>
     </row>
     <row r="191" spans="13:13">
-      <c r="M191" s="26"/>
+      <c r="M191" s="22"/>
     </row>
     <row r="192" spans="13:13">
-      <c r="M192" s="26"/>
+      <c r="M192" s="22"/>
     </row>
     <row r="193" spans="13:13">
-      <c r="M193" s="26"/>
+      <c r="M193" s="22"/>
     </row>
     <row r="194" spans="13:13">
-      <c r="M194" s="26"/>
+      <c r="M194" s="22"/>
     </row>
     <row r="195" spans="13:13">
-      <c r="M195" s="26"/>
+      <c r="M195" s="22"/>
     </row>
     <row r="196" spans="13:13">
-      <c r="M196" s="26"/>
+      <c r="M196" s="22"/>
     </row>
     <row r="197" spans="13:13">
-      <c r="M197" s="26"/>
+      <c r="M197" s="22"/>
     </row>
     <row r="198" spans="13:13">
-      <c r="M198" s="26"/>
+      <c r="M198" s="22"/>
     </row>
     <row r="199" spans="13:13">
-      <c r="M199" s="26"/>
+      <c r="M199" s="22"/>
     </row>
     <row r="200" spans="13:13">
-      <c r="M200" s="26"/>
+      <c r="M200" s="22"/>
     </row>
     <row r="201" spans="13:13">
-      <c r="M201" s="26"/>
+      <c r="M201" s="22"/>
     </row>
     <row r="202" spans="13:13">
-      <c r="M202" s="26"/>
+      <c r="M202" s="22"/>
     </row>
     <row r="203" spans="13:13">
-      <c r="M203" s="26"/>
+      <c r="M203" s="22"/>
     </row>
     <row r="204" spans="13:13">
-      <c r="M204" s="26"/>
+      <c r="M204" s="22"/>
     </row>
     <row r="205" spans="13:13">
-      <c r="M205" s="26"/>
+      <c r="M205" s="22"/>
     </row>
     <row r="206" spans="13:13">
-      <c r="M206" s="26"/>
+      <c r="M206" s="22"/>
     </row>
     <row r="207" spans="13:13">
-      <c r="M207" s="26"/>
+      <c r="M207" s="22"/>
     </row>
     <row r="208" spans="13:13">
-      <c r="M208" s="26"/>
+      <c r="M208" s="22"/>
     </row>
     <row r="209" spans="13:13">
-      <c r="M209" s="26"/>
+      <c r="M209" s="22"/>
     </row>
     <row r="210" spans="13:13">
-      <c r="M210" s="26"/>
+      <c r="M210" s="22"/>
     </row>
     <row r="211" spans="13:13">
-      <c r="M211" s="26"/>
+      <c r="M211" s="22"/>
     </row>
     <row r="212" spans="13:13">
-      <c r="M212" s="26"/>
+      <c r="M212" s="22"/>
     </row>
     <row r="213" spans="13:13">
-      <c r="M213" s="26"/>
+      <c r="M213" s="22"/>
     </row>
     <row r="214" spans="13:13">
-      <c r="M214" s="26"/>
+      <c r="M214" s="22"/>
     </row>
     <row r="215" spans="13:13">
-      <c r="M215" s="26"/>
+      <c r="M215" s="22"/>
     </row>
     <row r="216" spans="13:13">
-      <c r="M216" s="26"/>
+      <c r="M216" s="22"/>
     </row>
     <row r="217" spans="13:13">
-      <c r="M217" s="26"/>
+      <c r="M217" s="22"/>
     </row>
     <row r="218" spans="13:13">
-      <c r="M218" s="26"/>
+      <c r="M218" s="22"/>
     </row>
     <row r="219" spans="13:13">
-      <c r="M219" s="26"/>
+      <c r="M219" s="22"/>
     </row>
     <row r="220" spans="13:13">
-      <c r="M220" s="26"/>
+      <c r="M220" s="22"/>
     </row>
     <row r="221" spans="13:13">
-      <c r="M221" s="26"/>
+      <c r="M221" s="22"/>
     </row>
     <row r="222" spans="13:13">
-      <c r="M222" s="26"/>
+      <c r="M222" s="22"/>
     </row>
     <row r="223" spans="13:13">
-      <c r="M223" s="26"/>
+      <c r="M223" s="22"/>
     </row>
     <row r="224" spans="13:13">
-      <c r="M224" s="26"/>
+      <c r="M224" s="22"/>
     </row>
     <row r="225" spans="13:13">
-      <c r="M225" s="26"/>
+      <c r="M225" s="22"/>
     </row>
     <row r="226" spans="13:13">
-      <c r="M226" s="26"/>
+      <c r="M226" s="22"/>
     </row>
     <row r="227" spans="13:13">
-      <c r="M227" s="26"/>
+      <c r="M227" s="22"/>
     </row>
     <row r="228" spans="13:13">
-      <c r="M228" s="26"/>
+      <c r="M228" s="22"/>
     </row>
     <row r="229" spans="13:13">
-      <c r="M229" s="26"/>
+      <c r="M229" s="22"/>
     </row>
     <row r="230" spans="13:13">
-      <c r="M230" s="26"/>
+      <c r="M230" s="22"/>
     </row>
     <row r="231" spans="13:13">
-      <c r="M231" s="26"/>
+      <c r="M231" s="22"/>
     </row>
     <row r="232" spans="13:13">
-      <c r="M232" s="26"/>
+      <c r="M232" s="22"/>
     </row>
     <row r="233" spans="13:13">
-      <c r="M233" s="26"/>
+      <c r="M233" s="22"/>
     </row>
     <row r="234" spans="13:13">
-      <c r="M234" s="26"/>
+      <c r="M234" s="22"/>
     </row>
     <row r="235" spans="13:13">
-      <c r="M235" s="26"/>
+      <c r="M235" s="22"/>
     </row>
     <row r="236" spans="13:13">
-      <c r="M236" s="26"/>
+      <c r="M236" s="22"/>
     </row>
     <row r="237" spans="13:13">
-      <c r="M237" s="26"/>
+      <c r="M237" s="22"/>
     </row>
     <row r="238" spans="13:13">
-      <c r="M238" s="26"/>
+      <c r="M238" s="22"/>
     </row>
     <row r="239" spans="13:13">
-      <c r="M239" s="26"/>
+      <c r="M239" s="22"/>
     </row>
     <row r="240" spans="13:13">
-      <c r="M240" s="26"/>
+      <c r="M240" s="22"/>
     </row>
     <row r="241" spans="13:13">
-      <c r="M241" s="26"/>
+      <c r="M241" s="22"/>
     </row>
     <row r="242" spans="13:13">
-      <c r="M242" s="26"/>
+      <c r="M242" s="22"/>
     </row>
     <row r="243" spans="13:13">
-      <c r="M243" s="26"/>
+      <c r="M243" s="22"/>
     </row>
     <row r="244" spans="13:13">
-      <c r="M244" s="26"/>
+      <c r="M244" s="22"/>
     </row>
     <row r="245" spans="13:13">
-      <c r="M245" s="26"/>
+      <c r="M245" s="22"/>
     </row>
     <row r="246" spans="13:13">
-      <c r="M246" s="26"/>
+      <c r="M246" s="22"/>
     </row>
     <row r="247" spans="13:13">
-      <c r="M247" s="26"/>
+      <c r="M247" s="22"/>
     </row>
     <row r="248" spans="13:13">
-      <c r="M248" s="26"/>
+      <c r="M248" s="22"/>
     </row>
     <row r="249" spans="13:13">
-      <c r="M249" s="26"/>
+      <c r="M249" s="22"/>
     </row>
     <row r="250" spans="13:13">
-      <c r="M250" s="26"/>
+      <c r="M250" s="22"/>
     </row>
     <row r="251" spans="13:13">
-      <c r="M251" s="26"/>
+      <c r="M251" s="22"/>
     </row>
     <row r="252" spans="13:13">
-      <c r="M252" s="26"/>
+      <c r="M252" s="22"/>
     </row>
     <row r="253" spans="13:13">
-      <c r="M253" s="26"/>
+      <c r="M253" s="22"/>
     </row>
     <row r="254" spans="13:13">
-      <c r="M254" s="26"/>
+      <c r="M254" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LubanTools/DesignerConfigs/Datas/Build_建筑表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/Build_建筑表.xlsx
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -615,12 +615,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1551,7 +1551,7 @@
   <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1903,9 +1903,6 @@
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B10" s="19">
         <v>20201</v>
       </c>
@@ -1942,9 +1939,6 @@
       <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B11" s="19">
         <v>20301</v>
       </c>
@@ -1981,9 +1975,6 @@
       <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B12" s="19">
         <v>30101</v>
       </c>
@@ -2020,9 +2011,6 @@
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B13" s="19">
         <v>30201</v>
       </c>
@@ -2059,9 +2047,6 @@
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B14" s="19">
         <v>30301</v>
       </c>
@@ -2098,9 +2083,6 @@
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B15" s="19">
         <v>30401</v>
       </c>
@@ -2137,9 +2119,6 @@
       <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B16" s="19">
         <v>40101</v>
       </c>
@@ -2178,9 +2157,6 @@
       <c r="M16" s="17"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B17" s="19">
         <v>40201</v>
       </c>
@@ -2219,9 +2195,6 @@
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B18" s="19">
         <v>40301</v>
       </c>
@@ -2298,9 +2271,6 @@
       <c r="M19" s="17"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B20" s="19">
         <v>40501</v>
       </c>
@@ -2339,9 +2309,6 @@
       <c r="M20" s="17"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B21" s="19">
         <v>40601</v>
       </c>
@@ -2380,9 +2347,6 @@
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B22" s="19">
         <v>50101</v>
       </c>
@@ -2421,9 +2385,6 @@
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B23" s="19">
         <v>50201</v>
       </c>
@@ -2538,9 +2499,6 @@
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B26" s="19">
         <v>50501</v>
       </c>
@@ -2579,9 +2537,6 @@
       <c r="M26" s="17"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B27" s="19">
         <v>50601</v>
       </c>
@@ -2658,9 +2613,6 @@
       <c r="M28" s="17"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B29" s="19">
         <v>50801</v>
       </c>

--- a/LubanTools/DesignerConfigs/Datas/Build_建筑表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/Build_建筑表.xlsx
@@ -181,12 +181,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="N4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PR-生产能力
+RE-接待能力
+AF-政务能力</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
   <si>
     <t>##var</t>
   </si>
@@ -227,6 +241,9 @@
     <t>IslandAffinity</t>
   </si>
   <si>
+    <t>AttrType</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -305,9 +322,15 @@
     <t>岛屿亲和</t>
   </si>
   <si>
+    <t>属性影响类型</t>
+  </si>
+  <si>
     <t>游客中心</t>
   </si>
   <si>
+    <t>AF</t>
+  </si>
+  <si>
     <t>航站楼</t>
   </si>
   <si>
@@ -320,6 +343,9 @@
     <t>油田</t>
   </si>
   <si>
+    <t>PR</t>
+  </si>
+  <si>
     <t>炼油厂</t>
   </si>
   <si>
@@ -341,52 +367,64 @@
     <t>夜市轻食摊</t>
   </si>
   <si>
-    <t>1;6;4</t>
+    <t>3;4</t>
+  </si>
+  <si>
+    <t>RE</t>
   </si>
   <si>
     <t>森林茶屋</t>
   </si>
   <si>
-    <t>1;4</t>
+    <t>6;5</t>
   </si>
   <si>
     <t>石窑披萨坊</t>
   </si>
   <si>
-    <t>1;7</t>
+    <t>1;12</t>
   </si>
   <si>
     <t>手冲咖啡站</t>
   </si>
   <si>
+    <t>5;7</t>
+  </si>
+  <si>
     <t>海风果汁吧</t>
   </si>
   <si>
+    <t>6;7</t>
+  </si>
+  <si>
     <t>浮桥海鲜档</t>
   </si>
   <si>
-    <t>1;6</t>
+    <t>1;2</t>
   </si>
   <si>
     <t>悬挑天境台</t>
   </si>
   <si>
-    <t>2;7</t>
+    <t>13;19;9</t>
   </si>
   <si>
     <t>林梢环形秋千</t>
   </si>
   <si>
-    <t>3;2</t>
+    <t>10;14;16</t>
   </si>
   <si>
     <t>岩顶观景台</t>
   </si>
   <si>
+    <t>13;19;15</t>
+  </si>
+  <si>
     <t>解谜小屋</t>
   </si>
   <si>
-    <t>3;7</t>
+    <t>8;9</t>
   </si>
   <si>
     <t>森林绳索乐园</t>
@@ -395,16 +433,19 @@
     <t>星空露天影院</t>
   </si>
   <si>
-    <t>5;7;6</t>
+    <t>15;12</t>
   </si>
   <si>
     <t>玻璃底观景舱</t>
   </si>
   <si>
+    <t>19;9;17</t>
+  </si>
+  <si>
     <t>海风音乐露台</t>
   </si>
   <si>
-    <t>5;6;4</t>
+    <t>13;16;11</t>
   </si>
   <si>
     <t>普通员工桥</t>
@@ -615,12 +656,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -646,7 +687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,16 +916,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.5"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.5"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.5"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,7 +1177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1168,6 +1209,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1548,10 +1590,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M254"/>
+  <dimension ref="A1:N254"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1567,10 +1613,11 @@
     <col min="11" max="11" width="11.875" style="3" customWidth="1"/>
     <col min="12" max="12" width="37.125" style="4" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="18.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1610,1786 +1657,1869 @@
       <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="L4" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="14">
+      <c r="M4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="15">
         <v>10101</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="14" t="str">
+      <c r="C5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="15" t="str">
         <f t="shared" ref="D5:D31" si="0">"building_"&amp;B5</f>
         <v>building_10101</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="15">
         <v>3</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="15">
         <v>3</v>
       </c>
-      <c r="G5" s="14">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16">
-        <v>1</v>
-      </c>
-      <c r="I5" s="17">
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1</v>
+      </c>
+      <c r="I5" s="18">
         <v>0</v>
       </c>
-      <c r="J5" s="17">
-        <v>2</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="19">
+      <c r="J5" s="18">
+        <v>2</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="20">
         <v>10201</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="14" t="str">
+      <c r="C6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_10201</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="20">
         <v>3</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="20">
         <v>3</v>
       </c>
-      <c r="G6" s="19">
-        <v>1</v>
-      </c>
-      <c r="H6" s="14">
-        <v>2</v>
-      </c>
-      <c r="I6" s="17">
+      <c r="G6" s="20">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
+        <v>2</v>
+      </c>
+      <c r="I6" s="18">
         <v>0</v>
       </c>
-      <c r="J6" s="17">
-        <v>2</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="19">
+      <c r="J6" s="18">
+        <v>2</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="20">
         <v>10301</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="14" t="str">
+      <c r="C7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_10301</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="20">
         <v>3</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="20">
         <v>3</v>
       </c>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-      <c r="H7" s="14">
+      <c r="G7" s="20">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15">
         <v>3</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="18">
         <v>0</v>
       </c>
-      <c r="J7" s="17">
-        <v>2</v>
-      </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="19">
+      <c r="J7" s="18">
+        <v>2</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="20">
         <v>10401</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="14" t="str">
+      <c r="C8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_10401</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="20">
         <v>3</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="20">
         <v>3</v>
       </c>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="14">
+      <c r="G8" s="20">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
         <v>4</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="18">
         <v>0</v>
       </c>
-      <c r="J8" s="17">
-        <v>2</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="21"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="19">
+      <c r="J8" s="18">
+        <v>2</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="20">
         <v>20101</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="14" t="str">
+      <c r="C9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_20101</v>
       </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1</v>
+      </c>
+      <c r="G9" s="20">
         <v>3</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="15">
         <v>5</v>
       </c>
-      <c r="I9" s="17">
-        <v>1</v>
-      </c>
-      <c r="J9" s="17">
-        <v>2</v>
-      </c>
-      <c r="K9" s="17" t="str">
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
+      <c r="J9" s="18">
+        <v>2</v>
+      </c>
+      <c r="K9" s="18" t="str">
         <f>LEFT(B9,3)</f>
         <v>201</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="19">
+      <c r="L9" s="21"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="20">
         <v>20201</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="14" t="str">
+      <c r="C10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_20201</v>
       </c>
-      <c r="E10" s="19">
-        <v>2</v>
-      </c>
-      <c r="F10" s="19">
-        <v>2</v>
-      </c>
-      <c r="G10" s="19">
+      <c r="E10" s="20">
+        <v>2</v>
+      </c>
+      <c r="F10" s="20">
+        <v>2</v>
+      </c>
+      <c r="G10" s="20">
         <v>3</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="15">
         <v>6</v>
       </c>
-      <c r="I10" s="17">
-        <v>1</v>
-      </c>
-      <c r="J10" s="17">
-        <v>2</v>
-      </c>
-      <c r="K10" s="17" t="str">
+      <c r="I10" s="18">
+        <v>1</v>
+      </c>
+      <c r="J10" s="18">
+        <v>2</v>
+      </c>
+      <c r="K10" s="18" t="str">
         <f t="shared" ref="K10:K29" si="1">LEFT(B10,3)</f>
         <v>202</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11" s="19">
+      <c r="L10" s="21"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="20">
         <v>20301</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="14" t="str">
+      <c r="C11" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_20301</v>
       </c>
-      <c r="E11" s="19">
-        <v>2</v>
-      </c>
-      <c r="F11" s="19">
-        <v>2</v>
-      </c>
-      <c r="G11" s="19">
-        <v>2</v>
-      </c>
-      <c r="H11" s="14">
+      <c r="E11" s="20">
+        <v>2</v>
+      </c>
+      <c r="F11" s="20">
+        <v>2</v>
+      </c>
+      <c r="G11" s="20">
+        <v>2</v>
+      </c>
+      <c r="H11" s="15">
         <v>7</v>
       </c>
-      <c r="I11" s="17">
-        <v>1</v>
-      </c>
-      <c r="J11" s="17">
-        <v>2</v>
-      </c>
-      <c r="K11" s="17" t="str">
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
+      <c r="J11" s="18">
+        <v>2</v>
+      </c>
+      <c r="K11" s="18" t="str">
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="19">
+      <c r="L11" s="21"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="20">
         <v>30101</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="14" t="str">
+      <c r="C12" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_30101</v>
       </c>
-      <c r="E12" s="19">
-        <v>1</v>
-      </c>
-      <c r="F12" s="19">
-        <v>1</v>
-      </c>
-      <c r="G12" s="19">
+      <c r="E12" s="20">
+        <v>1</v>
+      </c>
+      <c r="F12" s="20">
+        <v>1</v>
+      </c>
+      <c r="G12" s="20">
         <v>3</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="15">
         <v>8</v>
       </c>
-      <c r="I12" s="17">
-        <v>1</v>
-      </c>
-      <c r="J12" s="17">
-        <v>2</v>
-      </c>
-      <c r="K12" s="17" t="str">
+      <c r="I12" s="18">
+        <v>1</v>
+      </c>
+      <c r="J12" s="18">
+        <v>2</v>
+      </c>
+      <c r="K12" s="18" t="str">
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="B13" s="19">
+      <c r="L12" s="21"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="20">
         <v>30201</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="14" t="str">
+      <c r="C13" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_30201</v>
       </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-      <c r="G13" s="19">
+      <c r="E13" s="20">
+        <v>1</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1</v>
+      </c>
+      <c r="G13" s="20">
         <v>3</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="15">
         <v>9</v>
       </c>
-      <c r="I13" s="17">
-        <v>1</v>
-      </c>
-      <c r="J13" s="17">
-        <v>2</v>
-      </c>
-      <c r="K13" s="17" t="str">
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
+      <c r="J13" s="18">
+        <v>2</v>
+      </c>
+      <c r="K13" s="18" t="str">
         <f t="shared" si="1"/>
         <v>302</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="19">
+      <c r="L13" s="21"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="20">
         <v>30301</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="14" t="str">
+      <c r="C14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_30301</v>
       </c>
-      <c r="E14" s="19">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19">
-        <v>1</v>
-      </c>
-      <c r="G14" s="19">
+      <c r="E14" s="20">
+        <v>1</v>
+      </c>
+      <c r="F14" s="20">
+        <v>1</v>
+      </c>
+      <c r="G14" s="20">
         <v>3</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="15">
         <v>10</v>
       </c>
-      <c r="I14" s="17">
-        <v>1</v>
-      </c>
-      <c r="J14" s="17">
-        <v>2</v>
-      </c>
-      <c r="K14" s="17" t="str">
+      <c r="I14" s="18">
+        <v>1</v>
+      </c>
+      <c r="J14" s="18">
+        <v>2</v>
+      </c>
+      <c r="K14" s="18" t="str">
         <f t="shared" si="1"/>
         <v>303</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="17"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="19">
+      <c r="L14" s="21"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="20">
         <v>30401</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="14" t="str">
+      <c r="C15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_30401</v>
       </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19">
-        <v>1</v>
-      </c>
-      <c r="G15" s="19">
+      <c r="E15" s="20">
+        <v>1</v>
+      </c>
+      <c r="F15" s="20">
+        <v>1</v>
+      </c>
+      <c r="G15" s="20">
         <v>3</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="15">
         <v>11</v>
       </c>
-      <c r="I15" s="17">
-        <v>1</v>
-      </c>
-      <c r="J15" s="17">
-        <v>2</v>
-      </c>
-      <c r="K15" s="17" t="str">
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
+      <c r="J15" s="18">
+        <v>2</v>
+      </c>
+      <c r="K15" s="18" t="str">
         <f t="shared" si="1"/>
         <v>304</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="B16" s="19">
+      <c r="L15" s="21"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="20">
         <v>40101</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="14" t="str">
+      <c r="C16" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_40101</v>
       </c>
-      <c r="E16" s="19">
-        <v>2</v>
-      </c>
-      <c r="F16" s="19">
-        <v>2</v>
-      </c>
-      <c r="G16" s="19">
+      <c r="E16" s="20">
+        <v>2</v>
+      </c>
+      <c r="F16" s="20">
+        <v>2</v>
+      </c>
+      <c r="G16" s="20">
         <v>4</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="15">
         <v>12</v>
       </c>
-      <c r="I16" s="17">
-        <v>1</v>
-      </c>
-      <c r="J16" s="17">
-        <v>2</v>
-      </c>
-      <c r="K16" s="17" t="str">
+      <c r="I16" s="18">
+        <v>1</v>
+      </c>
+      <c r="J16" s="18">
+        <v>2</v>
+      </c>
+      <c r="K16" s="18" t="str">
         <f t="shared" si="1"/>
         <v>401</v>
       </c>
-      <c r="L16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="B17" s="19">
+      <c r="L16" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="18"/>
+      <c r="N16" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="20">
         <v>40201</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="14" t="str">
+      <c r="C17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_40201</v>
       </c>
-      <c r="E17" s="19">
-        <v>2</v>
-      </c>
-      <c r="F17" s="19">
-        <v>2</v>
-      </c>
-      <c r="G17" s="19">
+      <c r="E17" s="20">
+        <v>2</v>
+      </c>
+      <c r="F17" s="20">
+        <v>2</v>
+      </c>
+      <c r="G17" s="20">
         <v>4</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="15">
         <v>13</v>
       </c>
-      <c r="I17" s="17">
-        <v>1</v>
-      </c>
-      <c r="J17" s="17">
-        <v>2</v>
-      </c>
-      <c r="K17" s="17" t="str">
+      <c r="I17" s="18">
+        <v>1</v>
+      </c>
+      <c r="J17" s="18">
+        <v>2</v>
+      </c>
+      <c r="K17" s="18" t="str">
         <f t="shared" si="1"/>
         <v>402</v>
       </c>
-      <c r="L17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="B18" s="19">
+      <c r="L17" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="18"/>
+      <c r="N17" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="20">
         <v>40301</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="14" t="str">
+      <c r="C18" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_40301</v>
       </c>
-      <c r="E18" s="19">
-        <v>2</v>
-      </c>
-      <c r="F18" s="19">
-        <v>2</v>
-      </c>
-      <c r="G18" s="19">
+      <c r="E18" s="20">
+        <v>2</v>
+      </c>
+      <c r="F18" s="20">
+        <v>2</v>
+      </c>
+      <c r="G18" s="20">
         <v>4</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="15">
         <v>14</v>
       </c>
-      <c r="I18" s="17">
-        <v>1</v>
-      </c>
-      <c r="J18" s="17">
-        <v>2</v>
-      </c>
-      <c r="K18" s="17" t="str">
+      <c r="I18" s="18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="18">
+        <v>2</v>
+      </c>
+      <c r="K18" s="18" t="str">
         <f t="shared" si="1"/>
         <v>403</v>
       </c>
-      <c r="L18" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="M18" s="17"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="B19" s="19">
+      <c r="L18" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="18"/>
+      <c r="N18" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="20">
         <v>40401</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="14" t="str">
+      <c r="C19" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_40401</v>
       </c>
-      <c r="E19" s="19">
-        <v>2</v>
-      </c>
-      <c r="F19" s="19">
-        <v>2</v>
-      </c>
-      <c r="G19" s="19">
+      <c r="E19" s="20">
+        <v>2</v>
+      </c>
+      <c r="F19" s="20">
+        <v>2</v>
+      </c>
+      <c r="G19" s="20">
         <v>4</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="15">
         <v>15</v>
       </c>
-      <c r="I19" s="17">
-        <v>1</v>
-      </c>
-      <c r="J19" s="17">
-        <v>2</v>
-      </c>
-      <c r="K19" s="17" t="str">
+      <c r="I19" s="18">
+        <v>1</v>
+      </c>
+      <c r="J19" s="18">
+        <v>2</v>
+      </c>
+      <c r="K19" s="18" t="str">
         <f t="shared" si="1"/>
         <v>404</v>
       </c>
-      <c r="L19" s="20">
-        <v>1</v>
-      </c>
-      <c r="M19" s="17"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="B20" s="19">
+      <c r="L19" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="18"/>
+      <c r="N19" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="20">
         <v>40501</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="14" t="str">
+      <c r="C20" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_40501</v>
       </c>
-      <c r="E20" s="19">
-        <v>2</v>
-      </c>
-      <c r="F20" s="19">
-        <v>2</v>
-      </c>
-      <c r="G20" s="19">
+      <c r="E20" s="20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="20">
         <v>4</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="15">
         <v>16</v>
       </c>
-      <c r="I20" s="17">
-        <v>1</v>
-      </c>
-      <c r="J20" s="17">
-        <v>2</v>
-      </c>
-      <c r="K20" s="17" t="str">
+      <c r="I20" s="18">
+        <v>1</v>
+      </c>
+      <c r="J20" s="18">
+        <v>2</v>
+      </c>
+      <c r="K20" s="18" t="str">
         <f t="shared" si="1"/>
         <v>405</v>
       </c>
-      <c r="L20" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="17"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="B21" s="19">
+      <c r="L20" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="18"/>
+      <c r="N20" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="20">
         <v>40601</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="14" t="str">
+      <c r="C21" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_40601</v>
       </c>
-      <c r="E21" s="19">
-        <v>2</v>
-      </c>
-      <c r="F21" s="19">
-        <v>2</v>
-      </c>
-      <c r="G21" s="19">
+      <c r="E21" s="20">
+        <v>2</v>
+      </c>
+      <c r="F21" s="20">
+        <v>2</v>
+      </c>
+      <c r="G21" s="20">
         <v>4</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="15">
         <v>17</v>
       </c>
-      <c r="I21" s="17">
-        <v>1</v>
-      </c>
-      <c r="J21" s="17">
-        <v>2</v>
-      </c>
-      <c r="K21" s="17" t="str">
+      <c r="I21" s="18">
+        <v>1</v>
+      </c>
+      <c r="J21" s="18">
+        <v>2</v>
+      </c>
+      <c r="K21" s="18" t="str">
         <f t="shared" si="1"/>
         <v>406</v>
       </c>
-      <c r="L21" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M21" s="17"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="B22" s="19">
+      <c r="L21" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="18"/>
+      <c r="N21" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="20">
         <v>50101</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="14" t="str">
+      <c r="C22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_50101</v>
       </c>
-      <c r="E22" s="19">
-        <v>2</v>
-      </c>
-      <c r="F22" s="19">
-        <v>2</v>
-      </c>
-      <c r="G22" s="19">
+      <c r="E22" s="20">
+        <v>2</v>
+      </c>
+      <c r="F22" s="20">
+        <v>2</v>
+      </c>
+      <c r="G22" s="20">
         <v>5</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="15">
         <v>18</v>
       </c>
-      <c r="I22" s="17">
-        <v>1</v>
-      </c>
-      <c r="J22" s="17">
-        <v>2</v>
-      </c>
-      <c r="K22" s="17" t="str">
+      <c r="I22" s="18">
+        <v>1</v>
+      </c>
+      <c r="J22" s="18">
+        <v>2</v>
+      </c>
+      <c r="K22" s="18" t="str">
         <f t="shared" si="1"/>
         <v>501</v>
       </c>
-      <c r="L22" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" s="17"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="B23" s="19">
+      <c r="L22" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="18"/>
+      <c r="N22" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="20">
         <v>50201</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="14" t="str">
+      <c r="C23" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_50201</v>
       </c>
-      <c r="E23" s="19">
-        <v>2</v>
-      </c>
-      <c r="F23" s="19">
-        <v>2</v>
-      </c>
-      <c r="G23" s="19">
+      <c r="E23" s="20">
+        <v>2</v>
+      </c>
+      <c r="F23" s="20">
+        <v>2</v>
+      </c>
+      <c r="G23" s="20">
         <v>5</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="15">
         <v>19</v>
       </c>
-      <c r="I23" s="17">
-        <v>1</v>
-      </c>
-      <c r="J23" s="17">
-        <v>2</v>
-      </c>
-      <c r="K23" s="17" t="str">
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
+      <c r="J23" s="18">
+        <v>2</v>
+      </c>
+      <c r="K23" s="18" t="str">
         <f t="shared" si="1"/>
         <v>502</v>
       </c>
-      <c r="L23" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M23" s="17"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="B24" s="19">
+      <c r="L23" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="18"/>
+      <c r="N23" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="20">
         <v>50301</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="14" t="str">
+      <c r="C24" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_50301</v>
       </c>
-      <c r="E24" s="19">
-        <v>2</v>
-      </c>
-      <c r="F24" s="19">
-        <v>2</v>
-      </c>
-      <c r="G24" s="19">
+      <c r="E24" s="20">
+        <v>2</v>
+      </c>
+      <c r="F24" s="20">
+        <v>2</v>
+      </c>
+      <c r="G24" s="20">
         <v>5</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="15">
         <v>20</v>
       </c>
-      <c r="I24" s="17">
-        <v>1</v>
-      </c>
-      <c r="J24" s="17">
-        <v>2</v>
-      </c>
-      <c r="K24" s="17" t="str">
+      <c r="I24" s="18">
+        <v>1</v>
+      </c>
+      <c r="J24" s="18">
+        <v>2</v>
+      </c>
+      <c r="K24" s="18" t="str">
         <f t="shared" si="1"/>
         <v>503</v>
       </c>
-      <c r="L24" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="M24" s="17"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="B25" s="19">
+      <c r="L24" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" s="18"/>
+      <c r="N24" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="20">
         <v>50401</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="14" t="str">
+      <c r="C25" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_50401</v>
       </c>
-      <c r="E25" s="19">
-        <v>2</v>
-      </c>
-      <c r="F25" s="19">
-        <v>2</v>
-      </c>
-      <c r="G25" s="19">
+      <c r="E25" s="20">
+        <v>2</v>
+      </c>
+      <c r="F25" s="20">
+        <v>2</v>
+      </c>
+      <c r="G25" s="20">
         <v>5</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="15">
         <v>21</v>
       </c>
-      <c r="I25" s="17">
-        <v>1</v>
-      </c>
-      <c r="J25" s="17">
-        <v>2</v>
-      </c>
-      <c r="K25" s="17" t="str">
+      <c r="I25" s="18">
+        <v>1</v>
+      </c>
+      <c r="J25" s="18">
+        <v>2</v>
+      </c>
+      <c r="K25" s="18" t="str">
         <f t="shared" si="1"/>
         <v>504</v>
       </c>
-      <c r="L25" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="M25" s="17"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="B26" s="19">
+      <c r="L25" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="18"/>
+      <c r="N25" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="20">
         <v>50501</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="14" t="str">
+      <c r="C26" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_50501</v>
       </c>
-      <c r="E26" s="19">
-        <v>2</v>
-      </c>
-      <c r="F26" s="19">
-        <v>2</v>
-      </c>
-      <c r="G26" s="19">
+      <c r="E26" s="20">
+        <v>2</v>
+      </c>
+      <c r="F26" s="20">
+        <v>2</v>
+      </c>
+      <c r="G26" s="20">
         <v>5</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="15">
         <v>22</v>
       </c>
-      <c r="I26" s="17">
-        <v>1</v>
-      </c>
-      <c r="J26" s="17">
-        <v>2</v>
-      </c>
-      <c r="K26" s="17" t="str">
+      <c r="I26" s="18">
+        <v>1</v>
+      </c>
+      <c r="J26" s="18">
+        <v>2</v>
+      </c>
+      <c r="K26" s="18" t="str">
         <f t="shared" si="1"/>
         <v>505</v>
       </c>
-      <c r="L26" s="20">
-        <v>3</v>
-      </c>
-      <c r="M26" s="17"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="B27" s="19">
+      <c r="L26" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" s="18"/>
+      <c r="N26" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="20">
         <v>50601</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="14" t="str">
+      <c r="C27" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_50601</v>
       </c>
-      <c r="E27" s="19">
-        <v>2</v>
-      </c>
-      <c r="F27" s="19">
-        <v>2</v>
-      </c>
-      <c r="G27" s="19">
+      <c r="E27" s="20">
+        <v>2</v>
+      </c>
+      <c r="F27" s="20">
+        <v>2</v>
+      </c>
+      <c r="G27" s="20">
         <v>5</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="15">
         <v>23</v>
       </c>
-      <c r="I27" s="17">
-        <v>1</v>
-      </c>
-      <c r="J27" s="17">
-        <v>2</v>
-      </c>
-      <c r="K27" s="17" t="str">
+      <c r="I27" s="18">
+        <v>1</v>
+      </c>
+      <c r="J27" s="18">
+        <v>2</v>
+      </c>
+      <c r="K27" s="18" t="str">
         <f t="shared" si="1"/>
         <v>506</v>
       </c>
-      <c r="L27" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="M27" s="17"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="B28" s="19">
+      <c r="L27" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="M27" s="18"/>
+      <c r="N27" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="20">
         <v>50701</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="14" t="str">
+      <c r="C28" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_50701</v>
       </c>
-      <c r="E28" s="19">
-        <v>2</v>
-      </c>
-      <c r="F28" s="19">
-        <v>2</v>
-      </c>
-      <c r="G28" s="19">
+      <c r="E28" s="20">
+        <v>2</v>
+      </c>
+      <c r="F28" s="20">
+        <v>2</v>
+      </c>
+      <c r="G28" s="20">
         <v>5</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="15">
         <v>24</v>
       </c>
-      <c r="I28" s="17">
-        <v>1</v>
-      </c>
-      <c r="J28" s="17">
-        <v>2</v>
-      </c>
-      <c r="K28" s="17" t="str">
+      <c r="I28" s="18">
+        <v>1</v>
+      </c>
+      <c r="J28" s="18">
+        <v>2</v>
+      </c>
+      <c r="K28" s="18" t="str">
         <f t="shared" si="1"/>
         <v>507</v>
       </c>
-      <c r="L28" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="M28" s="17"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="B29" s="19">
+      <c r="L28" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="M28" s="18"/>
+      <c r="N28" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="20">
         <v>50801</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="14" t="str">
+      <c r="C29" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_50801</v>
       </c>
-      <c r="E29" s="19">
-        <v>2</v>
-      </c>
-      <c r="F29" s="19">
-        <v>2</v>
-      </c>
-      <c r="G29" s="19">
+      <c r="E29" s="20">
+        <v>2</v>
+      </c>
+      <c r="F29" s="20">
+        <v>2</v>
+      </c>
+      <c r="G29" s="20">
         <v>5</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="15">
         <v>25</v>
       </c>
-      <c r="I29" s="17">
-        <v>1</v>
-      </c>
-      <c r="J29" s="17">
-        <v>2</v>
-      </c>
-      <c r="K29" s="17" t="str">
+      <c r="I29" s="18">
+        <v>1</v>
+      </c>
+      <c r="J29" s="18">
+        <v>2</v>
+      </c>
+      <c r="K29" s="18" t="str">
         <f t="shared" si="1"/>
         <v>508</v>
       </c>
-      <c r="L29" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="M29" s="17"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="19">
+      <c r="L29" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="M29" s="18"/>
+      <c r="N29" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="20">
         <v>60101</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="14" t="str">
+      <c r="C30" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_60101</v>
       </c>
-      <c r="E30" s="19">
-        <v>2</v>
-      </c>
-      <c r="F30" s="19">
-        <v>2</v>
-      </c>
-      <c r="G30" s="19">
+      <c r="E30" s="20">
+        <v>2</v>
+      </c>
+      <c r="F30" s="20">
+        <v>2</v>
+      </c>
+      <c r="G30" s="20">
         <v>6</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="15">
         <v>601</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="18">
         <v>0</v>
       </c>
-      <c r="J30" s="17">
-        <v>2</v>
-      </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="17"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="19">
+      <c r="J30" s="18">
+        <v>2</v>
+      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="20">
         <v>70101</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="14" t="str">
+      <c r="C31" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="15" t="str">
         <f t="shared" si="0"/>
         <v>building_70101</v>
       </c>
-      <c r="E31" s="19">
-        <v>2</v>
-      </c>
-      <c r="F31" s="19">
-        <v>2</v>
-      </c>
-      <c r="G31" s="19">
+      <c r="E31" s="20">
+        <v>2</v>
+      </c>
+      <c r="F31" s="20">
+        <v>2</v>
+      </c>
+      <c r="G31" s="20">
         <v>7</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="15">
         <v>701</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="18">
         <v>0</v>
       </c>
-      <c r="J31" s="17">
-        <v>2</v>
-      </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="17"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="M32" s="22"/>
+      <c r="J31" s="18">
+        <v>2</v>
+      </c>
+      <c r="K31" s="18"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="M32" s="23"/>
     </row>
     <row r="33" spans="13:13">
-      <c r="M33" s="22"/>
+      <c r="M33" s="23"/>
     </row>
     <row r="34" spans="13:13">
-      <c r="M34" s="22"/>
+      <c r="M34" s="23"/>
     </row>
     <row r="35" spans="13:13">
-      <c r="M35" s="22"/>
+      <c r="M35" s="23"/>
     </row>
     <row r="36" spans="13:13">
-      <c r="M36" s="22"/>
+      <c r="M36" s="23"/>
     </row>
     <row r="37" spans="13:13">
-      <c r="M37" s="22"/>
+      <c r="M37" s="23"/>
     </row>
     <row r="38" spans="13:13">
-      <c r="M38" s="22"/>
+      <c r="M38" s="23"/>
     </row>
     <row r="39" spans="13:13">
-      <c r="M39" s="22"/>
+      <c r="M39" s="23"/>
     </row>
     <row r="40" spans="13:13">
-      <c r="M40" s="22"/>
+      <c r="M40" s="23"/>
     </row>
     <row r="41" spans="13:13">
-      <c r="M41" s="22"/>
+      <c r="M41" s="23"/>
     </row>
     <row r="42" spans="13:13">
-      <c r="M42" s="22"/>
+      <c r="M42" s="23"/>
     </row>
     <row r="43" spans="13:13">
-      <c r="M43" s="22"/>
+      <c r="M43" s="23"/>
     </row>
     <row r="44" spans="13:13">
-      <c r="M44" s="22"/>
+      <c r="M44" s="23"/>
     </row>
     <row r="45" spans="13:13">
-      <c r="M45" s="22"/>
+      <c r="M45" s="23"/>
     </row>
     <row r="46" spans="13:13">
-      <c r="M46" s="22"/>
+      <c r="M46" s="23"/>
     </row>
     <row r="47" spans="13:13">
-      <c r="M47" s="22"/>
+      <c r="M47" s="23"/>
     </row>
     <row r="48" spans="13:13">
-      <c r="M48" s="22"/>
+      <c r="M48" s="23"/>
     </row>
     <row r="49" spans="13:13">
-      <c r="M49" s="22"/>
+      <c r="M49" s="23"/>
     </row>
     <row r="50" spans="13:13">
-      <c r="M50" s="22"/>
+      <c r="M50" s="23"/>
     </row>
     <row r="51" spans="13:13">
-      <c r="M51" s="22"/>
+      <c r="M51" s="23"/>
     </row>
     <row r="52" spans="13:13">
-      <c r="M52" s="22"/>
+      <c r="M52" s="23"/>
     </row>
     <row r="53" spans="13:13">
-      <c r="M53" s="22"/>
+      <c r="M53" s="23"/>
     </row>
     <row r="54" spans="13:13">
-      <c r="M54" s="22"/>
+      <c r="M54" s="23"/>
     </row>
     <row r="55" spans="13:13">
-      <c r="M55" s="22"/>
+      <c r="M55" s="23"/>
     </row>
     <row r="56" spans="13:13">
-      <c r="M56" s="22"/>
+      <c r="M56" s="23"/>
     </row>
     <row r="57" spans="13:13">
-      <c r="M57" s="22"/>
+      <c r="M57" s="23"/>
     </row>
     <row r="58" spans="13:13">
-      <c r="M58" s="22"/>
+      <c r="M58" s="23"/>
     </row>
     <row r="59" spans="13:13">
-      <c r="M59" s="22"/>
+      <c r="M59" s="23"/>
     </row>
     <row r="60" spans="13:13">
-      <c r="M60" s="22"/>
+      <c r="M60" s="23"/>
     </row>
     <row r="61" spans="13:13">
-      <c r="M61" s="22"/>
+      <c r="M61" s="23"/>
     </row>
     <row r="62" spans="13:13">
-      <c r="M62" s="22"/>
+      <c r="M62" s="23"/>
     </row>
     <row r="63" spans="13:13">
-      <c r="M63" s="22"/>
+      <c r="M63" s="23"/>
     </row>
     <row r="64" spans="13:13">
-      <c r="M64" s="22"/>
+      <c r="M64" s="23"/>
     </row>
     <row r="65" spans="13:13">
-      <c r="M65" s="22"/>
+      <c r="M65" s="23"/>
     </row>
     <row r="66" spans="13:13">
-      <c r="M66" s="22"/>
+      <c r="M66" s="23"/>
     </row>
     <row r="67" spans="13:13">
-      <c r="M67" s="22"/>
+      <c r="M67" s="23"/>
     </row>
     <row r="68" spans="13:13">
-      <c r="M68" s="22"/>
+      <c r="M68" s="23"/>
     </row>
     <row r="69" spans="13:13">
-      <c r="M69" s="22"/>
+      <c r="M69" s="23"/>
     </row>
     <row r="70" spans="13:13">
-      <c r="M70" s="22"/>
+      <c r="M70" s="23"/>
     </row>
     <row r="71" spans="13:13">
-      <c r="M71" s="22"/>
+      <c r="M71" s="23"/>
     </row>
     <row r="72" spans="13:13">
-      <c r="M72" s="22"/>
+      <c r="M72" s="23"/>
     </row>
     <row r="73" spans="13:13">
-      <c r="M73" s="22"/>
+      <c r="M73" s="23"/>
     </row>
     <row r="74" spans="13:13">
-      <c r="M74" s="22"/>
+      <c r="M74" s="23"/>
     </row>
     <row r="75" spans="13:13">
-      <c r="M75" s="22"/>
+      <c r="M75" s="23"/>
     </row>
     <row r="76" spans="13:13">
-      <c r="M76" s="22"/>
+      <c r="M76" s="23"/>
     </row>
     <row r="77" spans="13:13">
-      <c r="M77" s="22"/>
+      <c r="M77" s="23"/>
     </row>
     <row r="78" spans="13:13">
-      <c r="M78" s="22"/>
+      <c r="M78" s="23"/>
     </row>
     <row r="79" spans="13:13">
-      <c r="M79" s="22"/>
+      <c r="M79" s="23"/>
     </row>
     <row r="80" spans="13:13">
-      <c r="M80" s="22"/>
+      <c r="M80" s="23"/>
     </row>
     <row r="81" spans="13:13">
-      <c r="M81" s="22"/>
+      <c r="M81" s="23"/>
     </row>
     <row r="82" spans="13:13">
-      <c r="M82" s="22"/>
+      <c r="M82" s="23"/>
     </row>
     <row r="83" spans="13:13">
-      <c r="M83" s="22"/>
+      <c r="M83" s="23"/>
     </row>
     <row r="84" spans="13:13">
-      <c r="M84" s="22"/>
+      <c r="M84" s="23"/>
     </row>
     <row r="85" spans="13:13">
-      <c r="M85" s="22"/>
+      <c r="M85" s="23"/>
     </row>
     <row r="86" spans="13:13">
-      <c r="M86" s="22"/>
+      <c r="M86" s="23"/>
     </row>
     <row r="87" spans="13:13">
-      <c r="M87" s="22"/>
+      <c r="M87" s="23"/>
     </row>
     <row r="88" spans="13:13">
-      <c r="M88" s="22"/>
+      <c r="M88" s="23"/>
     </row>
     <row r="89" spans="13:13">
-      <c r="M89" s="22"/>
+      <c r="M89" s="23"/>
     </row>
     <row r="90" spans="13:13">
-      <c r="M90" s="22"/>
+      <c r="M90" s="23"/>
     </row>
     <row r="91" spans="13:13">
-      <c r="M91" s="22"/>
+      <c r="M91" s="23"/>
     </row>
     <row r="92" spans="13:13">
-      <c r="M92" s="22"/>
+      <c r="M92" s="23"/>
     </row>
     <row r="93" spans="13:13">
-      <c r="M93" s="22"/>
+      <c r="M93" s="23"/>
     </row>
     <row r="94" spans="13:13">
-      <c r="M94" s="22"/>
+      <c r="M94" s="23"/>
     </row>
     <row r="95" spans="13:13">
-      <c r="M95" s="22"/>
+      <c r="M95" s="23"/>
     </row>
     <row r="96" spans="13:13">
-      <c r="M96" s="22"/>
+      <c r="M96" s="23"/>
     </row>
     <row r="97" spans="13:13">
-      <c r="M97" s="22"/>
+      <c r="M97" s="23"/>
     </row>
     <row r="98" spans="13:13">
-      <c r="M98" s="22"/>
+      <c r="M98" s="23"/>
     </row>
     <row r="99" spans="13:13">
-      <c r="M99" s="22"/>
+      <c r="M99" s="23"/>
     </row>
     <row r="100" spans="13:13">
-      <c r="M100" s="22"/>
+      <c r="M100" s="23"/>
     </row>
     <row r="101" spans="13:13">
-      <c r="M101" s="22"/>
+      <c r="M101" s="23"/>
     </row>
     <row r="102" spans="13:13">
-      <c r="M102" s="22"/>
+      <c r="M102" s="23"/>
     </row>
     <row r="103" spans="13:13">
-      <c r="M103" s="22"/>
+      <c r="M103" s="23"/>
     </row>
     <row r="104" spans="13:13">
-      <c r="M104" s="22"/>
+      <c r="M104" s="23"/>
     </row>
     <row r="105" spans="13:13">
-      <c r="M105" s="22"/>
+      <c r="M105" s="23"/>
     </row>
     <row r="106" spans="13:13">
-      <c r="M106" s="22"/>
+      <c r="M106" s="23"/>
     </row>
     <row r="107" spans="13:13">
-      <c r="M107" s="22"/>
+      <c r="M107" s="23"/>
     </row>
     <row r="108" spans="13:13">
-      <c r="M108" s="22"/>
+      <c r="M108" s="23"/>
     </row>
     <row r="109" spans="13:13">
-      <c r="M109" s="22"/>
+      <c r="M109" s="23"/>
     </row>
     <row r="110" spans="13:13">
-      <c r="M110" s="22"/>
+      <c r="M110" s="23"/>
     </row>
     <row r="111" spans="13:13">
-      <c r="M111" s="22"/>
+      <c r="M111" s="23"/>
     </row>
     <row r="112" spans="13:13">
-      <c r="M112" s="22"/>
+      <c r="M112" s="23"/>
     </row>
     <row r="113" spans="13:13">
-      <c r="M113" s="22"/>
+      <c r="M113" s="23"/>
     </row>
     <row r="114" spans="13:13">
-      <c r="M114" s="22"/>
+      <c r="M114" s="23"/>
     </row>
     <row r="115" spans="13:13">
-      <c r="M115" s="22"/>
+      <c r="M115" s="23"/>
     </row>
     <row r="116" spans="13:13">
-      <c r="M116" s="22"/>
+      <c r="M116" s="23"/>
     </row>
     <row r="117" spans="13:13">
-      <c r="M117" s="22"/>
+      <c r="M117" s="23"/>
     </row>
     <row r="118" spans="13:13">
-      <c r="M118" s="22"/>
+      <c r="M118" s="23"/>
     </row>
     <row r="119" spans="13:13">
-      <c r="M119" s="22"/>
+      <c r="M119" s="23"/>
     </row>
     <row r="120" spans="13:13">
-      <c r="M120" s="22"/>
+      <c r="M120" s="23"/>
     </row>
     <row r="121" spans="13:13">
-      <c r="M121" s="22"/>
+      <c r="M121" s="23"/>
     </row>
     <row r="122" spans="13:13">
-      <c r="M122" s="22"/>
+      <c r="M122" s="23"/>
     </row>
     <row r="123" spans="13:13">
-      <c r="M123" s="22"/>
+      <c r="M123" s="23"/>
     </row>
     <row r="124" spans="13:13">
-      <c r="M124" s="22"/>
+      <c r="M124" s="23"/>
     </row>
     <row r="125" spans="13:13">
-      <c r="M125" s="22"/>
+      <c r="M125" s="23"/>
     </row>
     <row r="126" spans="13:13">
-      <c r="M126" s="22"/>
+      <c r="M126" s="23"/>
     </row>
     <row r="127" spans="13:13">
-      <c r="M127" s="22"/>
+      <c r="M127" s="23"/>
     </row>
     <row r="128" spans="13:13">
-      <c r="M128" s="22"/>
+      <c r="M128" s="23"/>
     </row>
     <row r="129" spans="13:13">
-      <c r="M129" s="22"/>
+      <c r="M129" s="23"/>
     </row>
     <row r="130" spans="13:13">
-      <c r="M130" s="22"/>
+      <c r="M130" s="23"/>
     </row>
     <row r="131" spans="13:13">
-      <c r="M131" s="22"/>
+      <c r="M131" s="23"/>
     </row>
     <row r="132" spans="13:13">
-      <c r="M132" s="22"/>
+      <c r="M132" s="23"/>
     </row>
     <row r="133" spans="13:13">
-      <c r="M133" s="22"/>
+      <c r="M133" s="23"/>
     </row>
     <row r="134" spans="13:13">
-      <c r="M134" s="22"/>
+      <c r="M134" s="23"/>
     </row>
     <row r="135" spans="13:13">
-      <c r="M135" s="22"/>
+      <c r="M135" s="23"/>
     </row>
     <row r="136" spans="13:13">
-      <c r="M136" s="22"/>
+      <c r="M136" s="23"/>
     </row>
     <row r="137" spans="13:13">
-      <c r="M137" s="22"/>
+      <c r="M137" s="23"/>
     </row>
     <row r="138" spans="13:13">
-      <c r="M138" s="22"/>
+      <c r="M138" s="23"/>
     </row>
     <row r="139" spans="13:13">
-      <c r="M139" s="22"/>
+      <c r="M139" s="23"/>
     </row>
     <row r="140" spans="13:13">
-      <c r="M140" s="22"/>
+      <c r="M140" s="23"/>
     </row>
     <row r="141" spans="13:13">
-      <c r="M141" s="22"/>
+      <c r="M141" s="23"/>
     </row>
     <row r="142" spans="13:13">
-      <c r="M142" s="22"/>
+      <c r="M142" s="23"/>
     </row>
     <row r="143" spans="13:13">
-      <c r="M143" s="22"/>
+      <c r="M143" s="23"/>
     </row>
     <row r="144" spans="13:13">
-      <c r="M144" s="22"/>
+      <c r="M144" s="23"/>
     </row>
     <row r="145" spans="13:13">
-      <c r="M145" s="22"/>
+      <c r="M145" s="23"/>
     </row>
     <row r="146" spans="13:13">
-      <c r="M146" s="22"/>
+      <c r="M146" s="23"/>
     </row>
     <row r="147" spans="13:13">
-      <c r="M147" s="22"/>
+      <c r="M147" s="23"/>
     </row>
     <row r="148" spans="13:13">
-      <c r="M148" s="22"/>
+      <c r="M148" s="23"/>
     </row>
     <row r="149" spans="13:13">
-      <c r="M149" s="22"/>
+      <c r="M149" s="23"/>
     </row>
     <row r="150" spans="13:13">
-      <c r="M150" s="22"/>
+      <c r="M150" s="23"/>
     </row>
     <row r="151" spans="13:13">
-      <c r="M151" s="22"/>
+      <c r="M151" s="23"/>
     </row>
     <row r="152" spans="13:13">
-      <c r="M152" s="22"/>
+      <c r="M152" s="23"/>
     </row>
     <row r="153" spans="13:13">
-      <c r="M153" s="22"/>
+      <c r="M153" s="23"/>
     </row>
     <row r="154" spans="13:13">
-      <c r="M154" s="22"/>
+      <c r="M154" s="23"/>
     </row>
     <row r="155" spans="13:13">
-      <c r="M155" s="22"/>
+      <c r="M155" s="23"/>
     </row>
     <row r="156" spans="13:13">
-      <c r="M156" s="22"/>
+      <c r="M156" s="23"/>
     </row>
     <row r="157" spans="13:13">
-      <c r="M157" s="22"/>
+      <c r="M157" s="23"/>
     </row>
     <row r="158" spans="13:13">
-      <c r="M158" s="22"/>
+      <c r="M158" s="23"/>
     </row>
     <row r="159" spans="13:13">
-      <c r="M159" s="22"/>
+      <c r="M159" s="23"/>
     </row>
     <row r="160" spans="13:13">
-      <c r="M160" s="22"/>
+      <c r="M160" s="23"/>
     </row>
     <row r="161" spans="13:13">
-      <c r="M161" s="22"/>
+      <c r="M161" s="23"/>
     </row>
     <row r="162" spans="13:13">
-      <c r="M162" s="22"/>
+      <c r="M162" s="23"/>
     </row>
     <row r="163" spans="13:13">
-      <c r="M163" s="22"/>
+      <c r="M163" s="23"/>
     </row>
     <row r="164" spans="13:13">
-      <c r="M164" s="22"/>
+      <c r="M164" s="23"/>
     </row>
     <row r="165" spans="13:13">
-      <c r="M165" s="22"/>
+      <c r="M165" s="23"/>
     </row>
     <row r="166" spans="13:13">
-      <c r="M166" s="22"/>
+      <c r="M166" s="23"/>
     </row>
     <row r="167" spans="13:13">
-      <c r="M167" s="22"/>
+      <c r="M167" s="23"/>
     </row>
     <row r="168" spans="13:13">
-      <c r="M168" s="22"/>
+      <c r="M168" s="23"/>
     </row>
     <row r="169" spans="13:13">
-      <c r="M169" s="22"/>
+      <c r="M169" s="23"/>
     </row>
     <row r="170" spans="13:13">
-      <c r="M170" s="22"/>
+      <c r="M170" s="23"/>
     </row>
     <row r="171" spans="13:13">
-      <c r="M171" s="22"/>
+      <c r="M171" s="23"/>
     </row>
     <row r="172" spans="13:13">
-      <c r="M172" s="22"/>
+      <c r="M172" s="23"/>
     </row>
     <row r="173" spans="13:13">
-      <c r="M173" s="22"/>
+      <c r="M173" s="23"/>
     </row>
     <row r="174" spans="13:13">
-      <c r="M174" s="22"/>
+      <c r="M174" s="23"/>
     </row>
     <row r="175" spans="13:13">
-      <c r="M175" s="22"/>
+      <c r="M175" s="23"/>
     </row>
     <row r="176" spans="13:13">
-      <c r="M176" s="22"/>
+      <c r="M176" s="23"/>
     </row>
     <row r="177" spans="13:13">
-      <c r="M177" s="22"/>
+      <c r="M177" s="23"/>
     </row>
     <row r="178" spans="13:13">
-      <c r="M178" s="22"/>
+      <c r="M178" s="23"/>
     </row>
     <row r="179" spans="13:13">
-      <c r="M179" s="22"/>
+      <c r="M179" s="23"/>
     </row>
     <row r="180" spans="13:13">
-      <c r="M180" s="22"/>
+      <c r="M180" s="23"/>
     </row>
     <row r="181" spans="13:13">
-      <c r="M181" s="22"/>
+      <c r="M181" s="23"/>
     </row>
     <row r="182" spans="13:13">
-      <c r="M182" s="22"/>
+      <c r="M182" s="23"/>
     </row>
     <row r="183" spans="13:13">
-      <c r="M183" s="22"/>
+      <c r="M183" s="23"/>
     </row>
     <row r="184" spans="13:13">
-      <c r="M184" s="22"/>
+      <c r="M184" s="23"/>
     </row>
     <row r="185" spans="13:13">
-      <c r="M185" s="22"/>
+      <c r="M185" s="23"/>
     </row>
     <row r="186" spans="13:13">
-      <c r="M186" s="22"/>
+      <c r="M186" s="23"/>
     </row>
     <row r="187" spans="13:13">
-      <c r="M187" s="22"/>
+      <c r="M187" s="23"/>
     </row>
     <row r="188" spans="13:13">
-      <c r="M188" s="22"/>
+      <c r="M188" s="23"/>
     </row>
     <row r="189" spans="13:13">
-      <c r="M189" s="22"/>
+      <c r="M189" s="23"/>
     </row>
     <row r="190" spans="13:13">
-      <c r="M190" s="22"/>
+      <c r="M190" s="23"/>
     </row>
     <row r="191" spans="13:13">
-      <c r="M191" s="22"/>
+      <c r="M191" s="23"/>
     </row>
     <row r="192" spans="13:13">
-      <c r="M192" s="22"/>
+      <c r="M192" s="23"/>
     </row>
     <row r="193" spans="13:13">
-      <c r="M193" s="22"/>
+      <c r="M193" s="23"/>
     </row>
     <row r="194" spans="13:13">
-      <c r="M194" s="22"/>
+      <c r="M194" s="23"/>
     </row>
     <row r="195" spans="13:13">
-      <c r="M195" s="22"/>
+      <c r="M195" s="23"/>
     </row>
     <row r="196" spans="13:13">
-      <c r="M196" s="22"/>
+      <c r="M196" s="23"/>
     </row>
     <row r="197" spans="13:13">
-      <c r="M197" s="22"/>
+      <c r="M197" s="23"/>
     </row>
     <row r="198" spans="13:13">
-      <c r="M198" s="22"/>
+      <c r="M198" s="23"/>
     </row>
     <row r="199" spans="13:13">
-      <c r="M199" s="22"/>
+      <c r="M199" s="23"/>
     </row>
     <row r="200" spans="13:13">
-      <c r="M200" s="22"/>
+      <c r="M200" s="23"/>
     </row>
     <row r="201" spans="13:13">
-      <c r="M201" s="22"/>
+      <c r="M201" s="23"/>
     </row>
     <row r="202" spans="13:13">
-      <c r="M202" s="22"/>
+      <c r="M202" s="23"/>
     </row>
     <row r="203" spans="13:13">
-      <c r="M203" s="22"/>
+      <c r="M203" s="23"/>
     </row>
     <row r="204" spans="13:13">
-      <c r="M204" s="22"/>
+      <c r="M204" s="23"/>
     </row>
     <row r="205" spans="13:13">
-      <c r="M205" s="22"/>
+      <c r="M205" s="23"/>
     </row>
     <row r="206" spans="13:13">
-      <c r="M206" s="22"/>
+      <c r="M206" s="23"/>
     </row>
     <row r="207" spans="13:13">
-      <c r="M207" s="22"/>
+      <c r="M207" s="23"/>
     </row>
     <row r="208" spans="13:13">
-      <c r="M208" s="22"/>
+      <c r="M208" s="23"/>
     </row>
     <row r="209" spans="13:13">
-      <c r="M209" s="22"/>
+      <c r="M209" s="23"/>
     </row>
     <row r="210" spans="13:13">
-      <c r="M210" s="22"/>
+      <c r="M210" s="23"/>
     </row>
     <row r="211" spans="13:13">
-      <c r="M211" s="22"/>
+      <c r="M211" s="23"/>
     </row>
     <row r="212" spans="13:13">
-      <c r="M212" s="22"/>
+      <c r="M212" s="23"/>
     </row>
     <row r="213" spans="13:13">
-      <c r="M213" s="22"/>
+      <c r="M213" s="23"/>
     </row>
     <row r="214" spans="13:13">
-      <c r="M214" s="22"/>
+      <c r="M214" s="23"/>
     </row>
     <row r="215" spans="13:13">
-      <c r="M215" s="22"/>
+      <c r="M215" s="23"/>
     </row>
     <row r="216" spans="13:13">
-      <c r="M216" s="22"/>
+      <c r="M216" s="23"/>
     </row>
     <row r="217" spans="13:13">
-      <c r="M217" s="22"/>
+      <c r="M217" s="23"/>
     </row>
     <row r="218" spans="13:13">
-      <c r="M218" s="22"/>
+      <c r="M218" s="23"/>
     </row>
     <row r="219" spans="13:13">
-      <c r="M219" s="22"/>
+      <c r="M219" s="23"/>
     </row>
     <row r="220" spans="13:13">
-      <c r="M220" s="22"/>
+      <c r="M220" s="23"/>
     </row>
     <row r="221" spans="13:13">
-      <c r="M221" s="22"/>
+      <c r="M221" s="23"/>
     </row>
     <row r="222" spans="13:13">
-      <c r="M222" s="22"/>
+      <c r="M222" s="23"/>
     </row>
     <row r="223" spans="13:13">
-      <c r="M223" s="22"/>
+      <c r="M223" s="23"/>
     </row>
     <row r="224" spans="13:13">
-      <c r="M224" s="22"/>
+      <c r="M224" s="23"/>
     </row>
     <row r="225" spans="13:13">
-      <c r="M225" s="22"/>
+      <c r="M225" s="23"/>
     </row>
     <row r="226" spans="13:13">
-      <c r="M226" s="22"/>
+      <c r="M226" s="23"/>
     </row>
     <row r="227" spans="13:13">
-      <c r="M227" s="22"/>
+      <c r="M227" s="23"/>
     </row>
     <row r="228" spans="13:13">
-      <c r="M228" s="22"/>
+      <c r="M228" s="23"/>
     </row>
     <row r="229" spans="13:13">
-      <c r="M229" s="22"/>
+      <c r="M229" s="23"/>
     </row>
     <row r="230" spans="13:13">
-      <c r="M230" s="22"/>
+      <c r="M230" s="23"/>
     </row>
     <row r="231" spans="13:13">
-      <c r="M231" s="22"/>
+      <c r="M231" s="23"/>
     </row>
     <row r="232" spans="13:13">
-      <c r="M232" s="22"/>
+      <c r="M232" s="23"/>
     </row>
     <row r="233" spans="13:13">
-      <c r="M233" s="22"/>
+      <c r="M233" s="23"/>
     </row>
     <row r="234" spans="13:13">
-      <c r="M234" s="22"/>
+      <c r="M234" s="23"/>
     </row>
     <row r="235" spans="13:13">
-      <c r="M235" s="22"/>
+      <c r="M235" s="23"/>
     </row>
     <row r="236" spans="13:13">
-      <c r="M236" s="22"/>
+      <c r="M236" s="23"/>
     </row>
     <row r="237" spans="13:13">
-      <c r="M237" s="22"/>
+      <c r="M237" s="23"/>
     </row>
     <row r="238" spans="13:13">
-      <c r="M238" s="22"/>
+      <c r="M238" s="23"/>
     </row>
     <row r="239" spans="13:13">
-      <c r="M239" s="22"/>
+      <c r="M239" s="23"/>
     </row>
     <row r="240" spans="13:13">
-      <c r="M240" s="22"/>
+      <c r="M240" s="23"/>
     </row>
     <row r="241" spans="13:13">
-      <c r="M241" s="22"/>
+      <c r="M241" s="23"/>
     </row>
     <row r="242" spans="13:13">
-      <c r="M242" s="22"/>
+      <c r="M242" s="23"/>
     </row>
     <row r="243" spans="13:13">
-      <c r="M243" s="22"/>
+      <c r="M243" s="23"/>
     </row>
     <row r="244" spans="13:13">
-      <c r="M244" s="22"/>
+      <c r="M244" s="23"/>
     </row>
     <row r="245" spans="13:13">
-      <c r="M245" s="22"/>
+      <c r="M245" s="23"/>
     </row>
     <row r="246" spans="13:13">
-      <c r="M246" s="22"/>
+      <c r="M246" s="23"/>
     </row>
     <row r="247" spans="13:13">
-      <c r="M247" s="22"/>
+      <c r="M247" s="23"/>
     </row>
     <row r="248" spans="13:13">
-      <c r="M248" s="22"/>
+      <c r="M248" s="23"/>
     </row>
     <row r="249" spans="13:13">
-      <c r="M249" s="22"/>
+      <c r="M249" s="23"/>
     </row>
     <row r="250" spans="13:13">
-      <c r="M250" s="22"/>
+      <c r="M250" s="23"/>
     </row>
     <row r="251" spans="13:13">
-      <c r="M251" s="22"/>
+      <c r="M251" s="23"/>
     </row>
     <row r="252" spans="13:13">
-      <c r="M252" s="22"/>
+      <c r="M252" s="23"/>
     </row>
     <row r="253" spans="13:13">
-      <c r="M253" s="22"/>
+      <c r="M253" s="23"/>
     </row>
     <row r="254" spans="13:13">
-      <c r="M254" s="22"/>
+      <c r="M254" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
